--- a/src/Pred_actual.xlsx
+++ b/src/Pred_actual.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chinckley/Desktop/Comp/COMP Github repo/Predicting-NBA-contracts/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D43311-8A85-F844-9EBA-636FC03E9543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79A9A95-D798-2548-9D79-F13C47BD82B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="303">
   <si>
     <t>Actual Ave Salary</t>
   </si>
@@ -926,13 +939,16 @@
   </si>
   <si>
     <t>Derrick Walton Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -954,6 +970,14 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -970,7 +994,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -993,18 +1017,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1308,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I22" sqref="I21:I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1320,9 +1357,10 @@
     <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1332,11 +1370,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>50203930</v>
       </c>
@@ -1349,8 +1390,12 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <f>A2-B2</f>
+        <v>40298193.456299737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>43031940</v>
       </c>
@@ -1363,8 +1408,12 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">A3-B3</f>
+        <v>22835891.183525089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>34320000</v>
       </c>
@@ -1377,8 +1426,12 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>31605305.555900544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>33232282</v>
       </c>
@@ -1391,8 +1444,12 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5871433.8810100816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>26000000</v>
       </c>
@@ -1405,8 +1462,12 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8933837.9532990307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>25000000</v>
       </c>
@@ -1419,8 +1480,12 @@
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>9087819.5520882998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>17737500</v>
       </c>
@@ -1433,8 +1498,12 @@
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>15254266.193665504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>17500000</v>
       </c>
@@ -1447,8 +1516,12 @@
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>8180001.854722973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16500000</v>
       </c>
@@ -1461,8 +1534,12 @@
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>9531703.0474445038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>15000000</v>
       </c>
@@ -1475,8 +1552,12 @@
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-1497918.8463349305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>14500000</v>
       </c>
@@ -1489,8 +1570,12 @@
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2552751.2926005591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12500000</v>
       </c>
@@ -1503,8 +1588,12 @@
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>9361047.0030134767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12144552</v>
       </c>
@@ -1517,8 +1606,12 @@
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-388435.10582266934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11750000</v>
       </c>
@@ -1531,8 +1624,12 @@
       <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1223534.6617621109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11277084</v>
       </c>
@@ -1545,8 +1642,12 @@
       <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2844616.4196328819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>11014500</v>
       </c>
@@ -1559,8 +1660,12 @@
       <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2105639.0090671405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10300000</v>
       </c>
@@ -1573,8 +1678,12 @@
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>-4925844.6606595702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9709025</v>
       </c>
@@ -1587,8 +1696,12 @@
       <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-4227250.2769270204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9100000</v>
       </c>
@@ -1601,8 +1714,12 @@
       <c r="D20" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1161421.0282558221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9000000</v>
       </c>
@@ -1615,8 +1732,12 @@
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>-2829156.1205133498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>8715000</v>
       </c>
@@ -1629,8 +1750,12 @@
       <c r="D22" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>-2440941.7318041194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>8625000</v>
       </c>
@@ -1643,8 +1768,12 @@
       <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>4209599.0178238181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8000000</v>
       </c>
@@ -1657,8 +1786,12 @@
       <c r="D24" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>-3129698.9347183201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8000000</v>
       </c>
@@ -1671,8 +1804,12 @@
       <c r="D25" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>4266561.0055616442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7840000</v>
       </c>
@@ -1685,8 +1822,12 @@
       <c r="D26" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>-5991304.0885838307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7500000</v>
       </c>
@@ -1699,8 +1840,12 @@
       <c r="D27" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>3224560.6022814075</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6876811</v>
       </c>
@@ -1713,8 +1858,12 @@
       <c r="D28" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>-4405970.9177188091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6802950</v>
       </c>
@@ -1727,8 +1876,12 @@
       <c r="D29" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>-646114.16263553686</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6640975</v>
       </c>
@@ -1741,8 +1894,12 @@
       <c r="D30" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>3239944.7686484181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6640975</v>
       </c>
@@ -1755,8 +1912,12 @@
       <c r="D31" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>-8510515.0689164791</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6640975</v>
       </c>
@@ -1769,8 +1930,12 @@
       <c r="D32" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>4603868.7441240679</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6640975</v>
       </c>
@@ -1783,8 +1948,12 @@
       <c r="D33" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>-1773997.3823099211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6479000</v>
       </c>
@@ -1797,8 +1966,12 @@
       <c r="D34" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>-4943743.5021764003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>6479000</v>
       </c>
@@ -1811,8 +1984,12 @@
       <c r="D35" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>3847407.7466722359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>6150000</v>
       </c>
@@ -1825,8 +2002,12 @@
       <c r="D36" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>-560242.78121181671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6146342</v>
       </c>
@@ -1839,8 +2020,12 @@
       <c r="D37" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>-10023541.88276246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5734280</v>
       </c>
@@ -1853,8 +2038,12 @@
       <c r="D38" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>-4573495.3625229094</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5043773</v>
       </c>
@@ -1867,8 +2056,12 @@
       <c r="D39" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>-53589.969914007001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4612500</v>
       </c>
@@ -1881,8 +2074,12 @@
       <c r="D40" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>-983125.37805124745</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4512000</v>
       </c>
@@ -1895,8 +2092,12 @@
       <c r="D41" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1792931.7563862428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4207625</v>
       </c>
@@ -1909,8 +2110,12 @@
       <c r="D42" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>-1230543.5955364583</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3666667</v>
       </c>
@@ -1923,8 +2128,12 @@
       <c r="D43" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>-5137573.5390825905</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3500000</v>
       </c>
@@ -1937,8 +2146,12 @@
       <c r="D44" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>-1208094.8131413376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3280000</v>
       </c>
@@ -1951,8 +2164,12 @@
       <c r="D45" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>-1681775.1849707179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3280000</v>
       </c>
@@ -1965,8 +2182,12 @@
       <c r="D46" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>-7272708.1353236903</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3000000</v>
       </c>
@@ -1979,8 +2200,12 @@
       <c r="D47" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>1124373.5896602341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2905851</v>
       </c>
@@ -1993,8 +2218,12 @@
       <c r="D48" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>-390208.04300838988</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2905851</v>
       </c>
@@ -2007,8 +2236,12 @@
       <c r="D49" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>-962825.04288872378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2905851</v>
       </c>
@@ -2021,8 +2254,12 @@
       <c r="D50" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>-582655.22163757496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2905851</v>
       </c>
@@ -2035,8 +2272,12 @@
       <c r="D51" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>1336390.5556612101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2905851</v>
       </c>
@@ -2049,8 +2290,12 @@
       <c r="D52" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>-4132076.0082913693</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2905851</v>
       </c>
@@ -2063,8 +2308,12 @@
       <c r="D53" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>-1954976.059648904</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2905851</v>
       </c>
@@ -2077,8 +2326,12 @@
       <c r="D54" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>370482.3359868289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2905851</v>
       </c>
@@ -2091,8 +2344,12 @@
       <c r="D55" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>-1089665.2288034149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2905851</v>
       </c>
@@ -2105,8 +2362,12 @@
       <c r="D56" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>-1679777.4267409472</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2905851</v>
       </c>
@@ -2119,8 +2380,12 @@
       <c r="D57" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>-15738200.461884379</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2905851</v>
       </c>
@@ -2133,8 +2398,12 @@
       <c r="D58" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>2355135.1060001096</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2900000</v>
       </c>
@@ -2147,8 +2416,12 @@
       <c r="D59" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>1072485.3843175301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2641682</v>
       </c>
@@ -2161,8 +2434,12 @@
       <c r="D60" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>-881814.61775197322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2641682</v>
       </c>
@@ -2175,8 +2452,12 @@
       <c r="D61" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>-90507.6421566559</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2628597</v>
       </c>
@@ -2189,8 +2470,12 @@
       <c r="D62" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>2287472.7461935719</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2628597</v>
       </c>
@@ -2203,8 +2488,12 @@
       <c r="D63" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>-121087.84021385387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2628597</v>
       </c>
@@ -2217,8 +2506,12 @@
       <c r="D64" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>-772433.23135158187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2611758</v>
       </c>
@@ -2231,8 +2524,12 @@
       <c r="D65" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>347214.16938048601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2463490</v>
       </c>
@@ -2245,8 +2542,12 @@
       <c r="D66" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>-1650118.8156895051</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2463490</v>
       </c>
@@ -2259,8 +2560,12 @@
       <c r="D67" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <f t="shared" ref="E67:E123" si="1">A67-B67</f>
+        <v>-413035.02612854401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2442525</v>
       </c>
@@ -2273,8 +2578,12 @@
       <c r="D68" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>-530223.61544313701</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2298385</v>
       </c>
@@ -2287,8 +2596,12 @@
       <c r="D69" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>-1867709.4098611008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2298385</v>
       </c>
@@ -2301,8 +2614,12 @@
       <c r="D70" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>1305915.3550558444</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2298385</v>
       </c>
@@ -2315,8 +2632,12 @@
       <c r="D71" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>-499411.6348711499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2298385</v>
       </c>
@@ -2329,8 +2650,12 @@
       <c r="D72" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>-3236007.1848510513</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2273291</v>
       </c>
@@ -2343,8 +2668,12 @@
       <c r="D73" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>-1342055.407552266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2273291</v>
       </c>
@@ -2357,8 +2686,12 @@
       <c r="D74" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>-2006522.1972328918</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2271775</v>
       </c>
@@ -2371,8 +2704,12 @@
       <c r="D75" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>-1417925.999295359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2200000</v>
       </c>
@@ -2385,8 +2722,12 @@
       <c r="D76" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>-2241643.7792619793</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2187500</v>
       </c>
@@ -2399,8 +2740,12 @@
       <c r="D77" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>-3513096.566394438</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2169972</v>
       </c>
@@ -2413,8 +2758,12 @@
       <c r="D78" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>-5917316.1552303657</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2133278</v>
       </c>
@@ -2427,8 +2776,12 @@
       <c r="D79" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>-1359602.0211518751</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2133278</v>
       </c>
@@ -2441,8 +2794,12 @@
       <c r="D80" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>-2181525.5933472896</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2133278</v>
       </c>
@@ -2455,8 +2812,12 @@
       <c r="D81" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>-2054685.407432599</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2133278</v>
       </c>
@@ -2469,8 +2830,12 @@
       <c r="D82" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>983351.5725410569</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2133278</v>
       </c>
@@ -2483,8 +2848,12 @@
       <c r="D83" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>-957563.20232922817</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1984359</v>
       </c>
@@ -2497,8 +2866,12 @@
       <c r="D84" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>2040899.7655019192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1984359</v>
       </c>
@@ -2511,8 +2884,12 @@
       <c r="D85" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>-1626613.6080379658</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1968185</v>
       </c>
@@ -2525,8 +2902,12 @@
       <c r="D86" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>-3098561.3733139094</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1968175</v>
       </c>
@@ -2539,8 +2920,12 @@
       <c r="D87" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>-3059207.1776852123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1968175</v>
       </c>
@@ -2553,8 +2938,12 @@
       <c r="D88" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>-2333507.1948043909</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1968175</v>
       </c>
@@ -2567,8 +2956,12 @@
       <c r="D89" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>-3570590.9843653506</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1968175</v>
       </c>
@@ -2581,8 +2974,12 @@
       <c r="D90" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>-1651545.2070665648</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1968175</v>
       </c>
@@ -2595,8 +2992,12 @@
       <c r="D91" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>-2246031.2045183973</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1968175</v>
       </c>
@@ -2609,8 +3010,12 @@
       <c r="D92" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>-1074554.4076719312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1916664</v>
       </c>
@@ -2623,8 +3028,12 @@
       <c r="D93" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>-1576216.0211518751</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1916664</v>
       </c>
@@ -2637,8 +3046,12 @@
       <c r="D94" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>-4343428.1677318737</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1902133</v>
       </c>
@@ -2651,8 +3064,12 @@
       <c r="D95" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>-3173360.9723425088</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1902133</v>
       </c>
@@ -2665,8 +3082,12 @@
       <c r="D96" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>4577176.728595729</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1902133</v>
       </c>
@@ -2679,8 +3100,12 @@
       <c r="D97" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>-1612616.0187233728</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1902133</v>
       </c>
@@ -2693,8 +3118,12 @@
       <c r="D98" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>-1761325.2022095621</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1902133</v>
       </c>
@@ -2707,8 +3136,12 @@
       <c r="D99" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>-1018130.0212715408</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1902133</v>
       </c>
@@ -2721,8 +3154,12 @@
       <c r="D100" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>118356.3794605271</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1886069</v>
       </c>
@@ -2735,8 +3172,12 @@
       <c r="D101" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>-2507462.9846046837</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1886069</v>
       </c>
@@ -2749,8 +3190,12 @@
       <c r="D102" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>2637693.151782643</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1836090</v>
       </c>
@@ -2763,8 +3208,12 @@
       <c r="D103" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>1201921.1787354946</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1836090</v>
       </c>
@@ -2777,8 +3226,12 @@
       <c r="D104" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>-1783630.2070665648</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1836090</v>
       </c>
@@ -2791,8 +3244,12 @@
       <c r="D105" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>-1818620.6031809631</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1836090</v>
       </c>
@@ -2805,8 +3262,12 @@
       <c r="D106" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>-4493982.9599606683</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1836090</v>
       </c>
@@ -2819,8 +3280,12 @@
       <c r="D107" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>-1311610.5960151232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1836090</v>
       </c>
@@ -2833,8 +3298,12 @@
       <c r="D108" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>-1853610.999295359</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1836090</v>
       </c>
@@ -2847,8 +3316,12 @@
       <c r="D109" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>1315639.9661072856</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1836090</v>
       </c>
@@ -2861,8 +3334,12 @@
       <c r="D110" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>-1879853.7963811569</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1836090</v>
       </c>
@@ -2875,8 +3352,12 @@
       <c r="D111" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>-1989198.7842386491</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1836090</v>
       </c>
@@ -2889,8 +3370,12 @@
       <c r="D112" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>-1219760.8062148299</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1836090</v>
       </c>
@@ -2903,8 +3388,12 @@
       <c r="D113" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>-1578061.629894481</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1782931</v>
       </c>
@@ -2917,8 +3406,12 @@
       <c r="D114" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>-2055479.1827815478</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1782931</v>
       </c>
@@ -2931,8 +3424,12 @@
       <c r="D115" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>-2090469.5788959451</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1637966</v>
       </c>
@@ -2945,8 +3442,12 @@
       <c r="D116" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>-1951137.6104664672</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1637966</v>
       </c>
@@ -2959,8 +3460,12 @@
       <c r="D117" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>-2112968.1924955552</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1637966</v>
       </c>
@@ -2973,8 +3478,12 @@
       <c r="D118" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>-1435380.0042720288</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1637966</v>
       </c>
@@ -2987,8 +3496,12 @@
       <c r="D119" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>-1881156.818237673</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1637966</v>
       </c>
@@ -3001,8 +3514,12 @@
       <c r="D120" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>-1588462.9872725168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1637966</v>
       </c>
@@ -3015,8 +3532,12 @@
       <c r="D121" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>-2042987.40026676</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1637966</v>
       </c>
@@ -3029,8 +3550,12 @@
       <c r="D122" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>-2847415.7744049774</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1637966</v>
       </c>
@@ -3043,28 +3568,32 @@
       <c r="D123" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>-819025.00924869906</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D124" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D125" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D126" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D127" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D128" s="3" t="s">
         <v>130</v>
       </c>

--- a/src/Pred_actual.xlsx
+++ b/src/Pred_actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chinckley/Desktop/Comp/COMP Github repo/Predicting-NBA-contracts/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79A9A95-D798-2548-9D79-F13C47BD82B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC0F42E-E969-7A47-BABF-D5F628F5B5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Actual Ave Salary</t>
   </si>
@@ -413,542 +413,20 @@
     <t>Lindell Wigginton</t>
   </si>
   <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Duncan Robinson</t>
-  </si>
-  <si>
-    <t>Norman Powell</t>
-  </si>
-  <si>
-    <t>Kyle Lowry</t>
-  </si>
-  <si>
-    <t>DeMar DeRozan</t>
-  </si>
-  <si>
-    <t>Lonzo Ball</t>
-  </si>
-  <si>
-    <t>Tim Hardaway Jr.</t>
-  </si>
-  <si>
-    <t>Evan Fournier</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
-    <t>Devonte' Graham</t>
-  </si>
-  <si>
-    <t>Richaun Holmes</t>
-  </si>
-  <si>
-    <t>Derrick Rose</t>
-  </si>
-  <si>
-    <t>Doug McDermott</t>
-  </si>
-  <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
-    <t>Kelly Olynyk</t>
-  </si>
-  <si>
-    <t>Alex Caruso</t>
-  </si>
-  <si>
-    <t>Daniel Theis</t>
-  </si>
-  <si>
-    <t>T.J. McConnell</t>
-  </si>
-  <si>
-    <t>Talen Horton-Tucker</t>
-  </si>
-  <si>
-    <t>Alec Burks</t>
-  </si>
-  <si>
-    <t>Reggie Bullock</t>
-  </si>
-  <si>
-    <t>Nerlens Noel</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>Zach Collins</t>
-  </si>
-  <si>
-    <t>Reggie Jackson</t>
-  </si>
-  <si>
-    <t>Khem Birch</t>
-  </si>
-  <si>
-    <t>Danny Green</t>
-  </si>
-  <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
-    <t>Rudy Gay</t>
-  </si>
-  <si>
-    <t>Kemba Walker</t>
-  </si>
-  <si>
-    <t>Garrett Temple</t>
-  </si>
-  <si>
-    <t>David Nwaba</t>
-  </si>
-  <si>
-    <t>Jarred Vanderbilt</t>
-  </si>
-  <si>
-    <t>Hamidou Diallo</t>
-  </si>
-  <si>
-    <t>Kendrick Nunn</t>
-  </si>
-  <si>
-    <t>Cory Joseph</t>
-  </si>
-  <si>
-    <t>Torrey Craig</t>
-  </si>
-  <si>
-    <t>Ishmael Smith</t>
-  </si>
-  <si>
-    <t>Jeff Green</t>
-  </si>
-  <si>
-    <t>Maurice Harkless</t>
-  </si>
-  <si>
-    <t>Dante Exum</t>
-  </si>
-  <si>
-    <t>Justise Winslow</t>
-  </si>
-  <si>
-    <t>Terence Davis</t>
-  </si>
-  <si>
-    <t>George Hill</t>
-  </si>
-  <si>
-    <t>Didi Louzada</t>
-  </si>
-  <si>
-    <t>Alex Len</t>
-  </si>
-  <si>
-    <t>Willy Hernangomez</t>
-  </si>
-  <si>
-    <t>Boban Marjanovic</t>
-  </si>
-  <si>
-    <t>Georges Niang</t>
-  </si>
-  <si>
-    <t>Jordan McLaughlin</t>
-  </si>
-  <si>
-    <t>Sterling Brown</t>
-  </si>
-  <si>
-    <t>Saben Lee</t>
-  </si>
-  <si>
-    <t>Trey Lyles</t>
-  </si>
-  <si>
-    <t>Louis Williams</t>
-  </si>
-  <si>
-    <t>Abdel Nader</t>
-  </si>
-  <si>
-    <t>Denzel Valentine</t>
-  </si>
-  <si>
-    <t>Frank Ntilikina</t>
-  </si>
-  <si>
-    <t>Tony Bradley</t>
-  </si>
-  <si>
-    <t>Keita Bates-Diop</t>
-  </si>
-  <si>
-    <t>Alize Johnson</t>
-  </si>
-  <si>
-    <t>Sviatoslav Mykhailiuk</t>
-  </si>
-  <si>
-    <t>Moritz Wagner</t>
-  </si>
-  <si>
-    <t>Thanasis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Javonte Green</t>
-  </si>
-  <si>
-    <t>Gabe Vincent</t>
-  </si>
-  <si>
-    <t>Max Strus</t>
-  </si>
-  <si>
-    <t>Omer Yurtseven</t>
-  </si>
-  <si>
-    <t>Will Barton</t>
-  </si>
-  <si>
-    <t>Avery Bradley</t>
-  </si>
-  <si>
-    <t>Patrick Patterson</t>
-  </si>
-  <si>
-    <t>Paul Millsap</t>
-  </si>
-  <si>
-    <t>E'Twaun Moore</t>
-  </si>
-  <si>
-    <t>LaMarcus Aldridge</t>
-  </si>
-  <si>
-    <t>Rajon Rondo</t>
-  </si>
-  <si>
-    <t>Enes Freedom</t>
-  </si>
-  <si>
-    <t>Trevor Ariza</t>
-  </si>
-  <si>
-    <t>Wayne Ellington</t>
-  </si>
-  <si>
-    <t>James Johnson</t>
-  </si>
-  <si>
-    <t>Dwight Howard</t>
-  </si>
-  <si>
-    <t>Carmelo Anthony</t>
-  </si>
-  <si>
-    <t>Markieff Morris</t>
-  </si>
-  <si>
-    <t>Jock Landale</t>
-  </si>
-  <si>
-    <t>Kent Bazemore</t>
-  </si>
-  <si>
-    <t>Hassan Whiteside</t>
-  </si>
-  <si>
-    <t>Tony Snell</t>
-  </si>
-  <si>
-    <t>Ben McLemore</t>
-  </si>
-  <si>
-    <t>Solomon Hill</t>
-  </si>
-  <si>
-    <t>Cody Zeller</t>
-  </si>
-  <si>
-    <t>Langston Galloway</t>
-  </si>
-  <si>
-    <t>Elfrid Payton</t>
-  </si>
-  <si>
-    <t>Rodney Hood</t>
-  </si>
-  <si>
-    <t>Jahlil Okafor</t>
-  </si>
-  <si>
-    <t>Stanley Johnson</t>
-  </si>
-  <si>
-    <t>Nemanja Bjelica</t>
-  </si>
-  <si>
-    <t>Timothe Luwawu-Cabarrot</t>
-  </si>
-  <si>
-    <t>DeAndre' Bembry</t>
-  </si>
-  <si>
-    <t>Shaquille Harrison</t>
-  </si>
-  <si>
-    <t>Jordan Bell</t>
-  </si>
-  <si>
-    <t>Chasson Randle</t>
-  </si>
-  <si>
-    <t>Harry Giles</t>
-  </si>
-  <si>
-    <t>Dennis Smith Jr.</t>
-  </si>
-  <si>
-    <t>Dwayne Bacon</t>
-  </si>
-  <si>
-    <t>Sam Dekker</t>
-  </si>
-  <si>
-    <t>Semi Ojeleye</t>
-  </si>
-  <si>
-    <t>Isaac Bonga</t>
-  </si>
-  <si>
-    <t>DaQuan Jeffries</t>
-  </si>
-  <si>
-    <t>Deividas Sirvydis</t>
-  </si>
-  <si>
-    <t>Garrison Mathews</t>
-  </si>
-  <si>
-    <t>Kyle Guy</t>
-  </si>
-  <si>
-    <t>Jared Harper</t>
-  </si>
-  <si>
-    <t>Chris Silva</t>
-  </si>
-  <si>
-    <t>Juwan Morgan</t>
-  </si>
-  <si>
-    <t>Tremont Waters</t>
-  </si>
-  <si>
-    <t>Tacko Fall</t>
-  </si>
-  <si>
-    <t>Jarrell Brantley</t>
-  </si>
-  <si>
-    <t>Cassius Stanley</t>
-  </si>
-  <si>
-    <t>Reggie Perry</t>
-  </si>
-  <si>
-    <t>Armoni Brooks</t>
-  </si>
-  <si>
-    <t>Anthony Davis</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Gordon Hayward</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Davis Bertans</t>
-  </si>
-  <si>
-    <t>Joe Harris</t>
-  </si>
-  <si>
-    <t>Bogdan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Marcus Morris Sr.</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Christian Wood</t>
-  </si>
-  <si>
-    <t>Kentavious Caldwell-Pope</t>
-  </si>
-  <si>
-    <t>De'Anthony Melton</t>
-  </si>
-  <si>
-    <t>Jae Crowder</t>
-  </si>
-  <si>
-    <t>Derrick Favors</t>
-  </si>
-  <si>
-    <t>Dario Saric</t>
-  </si>
-  <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
-    <t>Mason Plumlee</t>
-  </si>
-  <si>
-    <t>D.J. Augustin</t>
-  </si>
-  <si>
-    <t>Tristan Thompson</t>
-  </si>
-  <si>
-    <t>Justin Holiday</t>
-  </si>
-  <si>
-    <t>Pat Connaughton</t>
-  </si>
-  <si>
-    <t>Aron Baynes</t>
-  </si>
-  <si>
-    <t>Kris Dunn</t>
-  </si>
-  <si>
-    <t>Trey Burke</t>
-  </si>
-  <si>
-    <t>Meyers Leonard</t>
-  </si>
-  <si>
-    <t>John Konchar</t>
-  </si>
-  <si>
-    <t>Willie Cauley-Stein</t>
-  </si>
-  <si>
-    <t>Michael Carter-Williams</t>
-  </si>
-  <si>
-    <t>Kenrich Williams</t>
-  </si>
-  <si>
-    <t>Jontay Porter</t>
-  </si>
-  <si>
-    <t>Chimezie Metu</t>
-  </si>
-  <si>
-    <t>Joshia Gray</t>
-  </si>
-  <si>
-    <t>Marc Gasol</t>
-  </si>
-  <si>
-    <t>Zylan Cheatham</t>
-  </si>
-  <si>
-    <t>Gary Clark</t>
-  </si>
-  <si>
-    <t>Jerian Grant</t>
-  </si>
-  <si>
-    <t>Wenyen Gabriel</t>
-  </si>
-  <si>
-    <t>James Ennis III</t>
-  </si>
-  <si>
-    <t>Kelan Martin</t>
-  </si>
-  <si>
-    <t>Oshae Brissett</t>
-  </si>
-  <si>
-    <t>Jose Barea</t>
-  </si>
-  <si>
-    <t>Jared Dudley</t>
-  </si>
-  <si>
-    <t>Jeff Teague</t>
-  </si>
-  <si>
-    <t>Glenn Robinson III</t>
-  </si>
-  <si>
-    <t>Noah Vonleh</t>
-  </si>
-  <si>
-    <t>Tyler Johnson</t>
-  </si>
-  <si>
-    <t>JaKarr Sampson</t>
-  </si>
-  <si>
-    <t>Thon Maker</t>
-  </si>
-  <si>
-    <t>Sindarius Thornwell</t>
-  </si>
-  <si>
-    <t>Derrick Walton Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Difference </t>
+  </si>
+  <si>
+    <t>Average Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Difference </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,6 +459,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1031,7 +516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1042,6 +527,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1345,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1358,9 +847,11 @@
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,10 +865,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>50203930</v>
       </c>
@@ -1394,8 +891,15 @@
         <f>A2-B2</f>
         <v>40298193.456299737</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>G2/122</f>
+        <v>79349.42581967212</v>
+      </c>
+      <c r="G2" s="7">
+        <v>9680629.9499999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>43031940</v>
       </c>
@@ -1413,7 +917,7 @@
         <v>22835891.183525089</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>34320000</v>
       </c>
@@ -1431,7 +935,7 @@
         <v>31605305.555900544</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>33232282</v>
       </c>
@@ -1449,7 +953,7 @@
         <v>5871433.8810100816</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>26000000</v>
       </c>
@@ -1467,7 +971,7 @@
         <v>8933837.9532990307</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>25000000</v>
       </c>
@@ -1485,7 +989,7 @@
         <v>9087819.5520882998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>17737500</v>
       </c>
@@ -1503,7 +1007,7 @@
         <v>15254266.193665504</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>17500000</v>
       </c>
@@ -1521,7 +1025,7 @@
         <v>8180001.854722973</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16500000</v>
       </c>
@@ -1539,7 +1043,7 @@
         <v>9531703.0474445038</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>15000000</v>
       </c>
@@ -1557,7 +1061,7 @@
         <v>-1497918.8463349305</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>14500000</v>
       </c>
@@ -1575,7 +1079,7 @@
         <v>2552751.2926005591</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12500000</v>
       </c>
@@ -1593,7 +1097,7 @@
         <v>9361047.0030134767</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12144552</v>
       </c>
@@ -1611,7 +1115,7 @@
         <v>-388435.10582266934</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11750000</v>
       </c>
@@ -1629,7 +1133,7 @@
         <v>1223534.6617621109</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11277084</v>
       </c>
@@ -3574,1299 +3078,781 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D124" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D125" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="D125" s="3"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D126" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D127" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D128" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="D128" s="3"/>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D129" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="D129" s="3"/>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D130" s="3" t="s">
-        <v>132</v>
-      </c>
+      <c r="D130" s="3"/>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D131" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="D131" s="3"/>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D132" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="D132" s="3"/>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D133" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="D133" s="3"/>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D134" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="D134" s="3"/>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D135" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="D135" s="3"/>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D136" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="D136" s="3"/>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D137" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="D137" s="3"/>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D138" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="D138" s="3"/>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D139" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="D139" s="3"/>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D140" s="3" t="s">
-        <v>142</v>
-      </c>
+      <c r="D140" s="3"/>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D141" s="3" t="s">
-        <v>143</v>
-      </c>
+      <c r="D141" s="3"/>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D142" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="D142" s="3"/>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D143" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="D143" s="3"/>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D144" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="D144" s="3"/>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D145" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="D145" s="3"/>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D146" s="3" t="s">
-        <v>148</v>
-      </c>
+      <c r="D146" s="3"/>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D147" s="3" t="s">
-        <v>149</v>
-      </c>
+      <c r="D147" s="3"/>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D148" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="D148" s="3"/>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D149" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="D149" s="3"/>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D150" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="D150" s="3"/>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D151" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="D151" s="3"/>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D152" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="D152" s="3"/>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D153" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="D153" s="3"/>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D154" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="D154" s="3"/>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D155" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="D155" s="3"/>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D156" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="D156" s="3"/>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D157" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="D157" s="3"/>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D158" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="D158" s="3"/>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D159" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="D159" s="3"/>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D160" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="D160" s="3"/>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D161" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="D161" s="3"/>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D162" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="D162" s="3"/>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D163" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="D163" s="3"/>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D164" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="D164" s="3"/>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D165" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D165" s="3"/>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D166" s="3" t="s">
-        <v>165</v>
-      </c>
+      <c r="D166" s="3"/>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D167" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="D167" s="3"/>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D168" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="D168" s="3"/>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D169" s="3" t="s">
-        <v>167</v>
-      </c>
+      <c r="D169" s="3"/>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D170" s="3" t="s">
-        <v>168</v>
-      </c>
+      <c r="D170" s="3"/>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D171" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="D171" s="3"/>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D172" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="D172" s="3"/>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D173" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="D173" s="3"/>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D174" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="D174" s="3"/>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D175" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="D175" s="3"/>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D176" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="D176" s="3"/>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D177" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="D177" s="3"/>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D178" s="3" t="s">
-        <v>175</v>
-      </c>
+      <c r="D178" s="3"/>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D179" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="D179" s="3"/>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D180" s="3" t="s">
-        <v>177</v>
-      </c>
+      <c r="D180" s="3"/>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D181" s="3" t="s">
-        <v>178</v>
-      </c>
+      <c r="D181" s="3"/>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D182" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D182" s="3"/>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D183" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="D183" s="3"/>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D184" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="D184" s="3"/>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D185" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="D185" s="3"/>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D186" s="3" t="s">
-        <v>181</v>
-      </c>
+      <c r="D186" s="3"/>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D187" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="D187" s="3"/>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D188" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="D188" s="3"/>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D189" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="D189" s="3"/>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D190" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="D190" s="3"/>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D191" s="3" t="s">
-        <v>184</v>
-      </c>
+      <c r="D191" s="3"/>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D192" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="D192" s="3"/>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D193" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="D193" s="3"/>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D194" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="D194" s="3"/>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D195" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="D195" s="3"/>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D196" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="D196" s="3"/>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D197" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="D197" s="3"/>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D198" s="3" t="s">
-        <v>187</v>
-      </c>
+      <c r="D198" s="3"/>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D199" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="D199" s="3"/>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D200" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="D200" s="3"/>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D201" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="D201" s="3"/>
     </row>
     <row r="202" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D202" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="D202" s="3"/>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D203" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="D203" s="3"/>
     </row>
     <row r="204" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D204" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="D204" s="3"/>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D205" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="D205" s="3"/>
     </row>
     <row r="206" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D206" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="D206" s="3"/>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D207" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="D207" s="3"/>
     </row>
     <row r="208" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D208" s="3" t="s">
-        <v>196</v>
-      </c>
+      <c r="D208" s="3"/>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D209" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="D209" s="3"/>
     </row>
     <row r="210" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D210" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="D210" s="3"/>
     </row>
     <row r="211" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D211" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="D211" s="3"/>
     </row>
     <row r="212" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D212" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="D212" s="3"/>
     </row>
     <row r="213" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D213" s="3" t="s">
-        <v>201</v>
-      </c>
+      <c r="D213" s="3"/>
     </row>
     <row r="214" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D214" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="D214" s="3"/>
     </row>
     <row r="215" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D215" s="3" t="s">
-        <v>203</v>
-      </c>
+      <c r="D215" s="3"/>
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D216" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="D216" s="3"/>
     </row>
     <row r="217" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D217" s="3" t="s">
-        <v>204</v>
-      </c>
+      <c r="D217" s="3"/>
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D218" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="D218" s="3"/>
     </row>
     <row r="219" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D219" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="D219" s="3"/>
     </row>
     <row r="220" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D220" s="3" t="s">
-        <v>206</v>
-      </c>
+      <c r="D220" s="3"/>
     </row>
     <row r="221" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D221" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="D221" s="3"/>
     </row>
     <row r="222" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D222" s="3" t="s">
-        <v>207</v>
-      </c>
+      <c r="D222" s="3"/>
     </row>
     <row r="223" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D223" s="3" t="s">
-        <v>208</v>
-      </c>
+      <c r="D223" s="3"/>
     </row>
     <row r="224" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D224" s="3" t="s">
-        <v>209</v>
-      </c>
+      <c r="D224" s="3"/>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D225" s="3" t="s">
-        <v>210</v>
-      </c>
+      <c r="D225" s="3"/>
     </row>
     <row r="226" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D226" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="D226" s="3"/>
     </row>
     <row r="227" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D227" s="3" t="s">
-        <v>212</v>
-      </c>
+      <c r="D227" s="3"/>
     </row>
     <row r="228" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D228" s="3" t="s">
-        <v>213</v>
-      </c>
+      <c r="D228" s="3"/>
     </row>
     <row r="229" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D229" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="D229" s="3"/>
     </row>
     <row r="230" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D230" s="3" t="s">
-        <v>214</v>
-      </c>
+      <c r="D230" s="3"/>
     </row>
     <row r="231" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D231" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="D231" s="3"/>
     </row>
     <row r="232" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D232" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="D232" s="3"/>
     </row>
     <row r="233" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D233" s="3" t="s">
-        <v>216</v>
-      </c>
+      <c r="D233" s="3"/>
     </row>
     <row r="234" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D234" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="D234" s="3"/>
     </row>
     <row r="235" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D235" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="D235" s="3"/>
     </row>
     <row r="236" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D236" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="D236" s="3"/>
     </row>
     <row r="237" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D237" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="D237" s="3"/>
     </row>
     <row r="238" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D238" s="3" t="s">
-        <v>218</v>
-      </c>
+      <c r="D238" s="3"/>
     </row>
     <row r="239" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D239" s="3" t="s">
-        <v>219</v>
-      </c>
+      <c r="D239" s="3"/>
     </row>
     <row r="240" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D240" s="3" t="s">
-        <v>220</v>
-      </c>
+      <c r="D240" s="3"/>
     </row>
     <row r="241" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D241" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="D241" s="3"/>
     </row>
     <row r="242" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D242" s="3" t="s">
-        <v>222</v>
-      </c>
+      <c r="D242" s="3"/>
     </row>
     <row r="243" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D243" s="3" t="s">
-        <v>223</v>
-      </c>
+      <c r="D243" s="3"/>
     </row>
     <row r="244" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D244" s="3" t="s">
-        <v>224</v>
-      </c>
+      <c r="D244" s="3"/>
     </row>
     <row r="245" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D245" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="D245" s="3"/>
     </row>
     <row r="246" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D246" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="D246" s="3"/>
     </row>
     <row r="247" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D247" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="D247" s="3"/>
     </row>
     <row r="248" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D248" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="D248" s="3"/>
     </row>
     <row r="249" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D249" s="3" t="s">
-        <v>227</v>
-      </c>
+      <c r="D249" s="3"/>
     </row>
     <row r="250" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D250" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="D250" s="3"/>
     </row>
     <row r="251" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D251" s="3" t="s">
-        <v>228</v>
-      </c>
+      <c r="D251" s="3"/>
     </row>
     <row r="252" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D252" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="D252" s="3"/>
     </row>
     <row r="253" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D253" s="3" t="s">
-        <v>229</v>
-      </c>
+      <c r="D253" s="3"/>
     </row>
     <row r="254" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D254" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="D254" s="3"/>
     </row>
     <row r="255" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D255" s="3" t="s">
-        <v>230</v>
-      </c>
+      <c r="D255" s="3"/>
     </row>
     <row r="256" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D256" s="3" t="s">
-        <v>231</v>
-      </c>
+      <c r="D256" s="3"/>
     </row>
     <row r="257" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D257" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="D257" s="3"/>
     </row>
     <row r="258" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D258" s="3" t="s">
-        <v>233</v>
-      </c>
+      <c r="D258" s="3"/>
     </row>
     <row r="259" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D259" s="3" t="s">
-        <v>234</v>
-      </c>
+      <c r="D259" s="3"/>
     </row>
     <row r="260" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D260" s="3" t="s">
-        <v>235</v>
-      </c>
+      <c r="D260" s="3"/>
     </row>
     <row r="261" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D261" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D261" s="3"/>
     </row>
     <row r="262" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D262" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="D262" s="3"/>
     </row>
     <row r="263" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D263" s="3" t="s">
-        <v>236</v>
-      </c>
+      <c r="D263" s="3"/>
     </row>
     <row r="264" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D264" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="D264" s="3"/>
     </row>
     <row r="265" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D265" s="3" t="s">
-        <v>238</v>
-      </c>
+      <c r="D265" s="3"/>
     </row>
     <row r="266" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D266" s="3" t="s">
-        <v>239</v>
-      </c>
+      <c r="D266" s="3"/>
     </row>
     <row r="267" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D267" s="3" t="s">
-        <v>240</v>
-      </c>
+      <c r="D267" s="3"/>
     </row>
     <row r="268" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D268" s="3" t="s">
-        <v>241</v>
-      </c>
+      <c r="D268" s="3"/>
     </row>
     <row r="269" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D269" s="3" t="s">
-        <v>242</v>
-      </c>
+      <c r="D269" s="3"/>
     </row>
     <row r="270" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D270" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="D270" s="3"/>
     </row>
     <row r="271" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D271" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="D271" s="3"/>
     </row>
     <row r="272" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D272" s="3" t="s">
-        <v>244</v>
-      </c>
+      <c r="D272" s="3"/>
     </row>
     <row r="273" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D273" s="3" t="s">
-        <v>245</v>
-      </c>
+      <c r="D273" s="3"/>
     </row>
     <row r="274" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D274" s="3" t="s">
-        <v>246</v>
-      </c>
+      <c r="D274" s="3"/>
     </row>
     <row r="275" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D275" s="3" t="s">
-        <v>247</v>
-      </c>
+      <c r="D275" s="3"/>
     </row>
     <row r="276" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D276" s="3" t="s">
-        <v>248</v>
-      </c>
+      <c r="D276" s="3"/>
     </row>
     <row r="277" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D277" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="D277" s="3"/>
     </row>
     <row r="278" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D278" s="3" t="s">
-        <v>249</v>
-      </c>
+      <c r="D278" s="3"/>
     </row>
     <row r="279" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D279" s="3" t="s">
-        <v>250</v>
-      </c>
+      <c r="D279" s="3"/>
     </row>
     <row r="280" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D280" s="3" t="s">
-        <v>251</v>
-      </c>
+      <c r="D280" s="3"/>
     </row>
     <row r="281" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D281" s="3" t="s">
-        <v>252</v>
-      </c>
+      <c r="D281" s="3"/>
     </row>
     <row r="282" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D282" s="3" t="s">
-        <v>253</v>
-      </c>
+      <c r="D282" s="3"/>
     </row>
     <row r="283" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D283" s="3" t="s">
-        <v>254</v>
-      </c>
+      <c r="D283" s="3"/>
     </row>
     <row r="284" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D284" s="3" t="s">
-        <v>255</v>
-      </c>
+      <c r="D284" s="3"/>
     </row>
     <row r="285" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D285" s="3" t="s">
-        <v>256</v>
-      </c>
+      <c r="D285" s="3"/>
     </row>
     <row r="286" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D286" s="3" t="s">
-        <v>257</v>
-      </c>
+      <c r="D286" s="3"/>
     </row>
     <row r="287" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D287" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="D287" s="3"/>
     </row>
     <row r="288" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D288" s="3" t="s">
-        <v>258</v>
-      </c>
+      <c r="D288" s="3"/>
     </row>
     <row r="289" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D289" s="3" t="s">
-        <v>259</v>
-      </c>
+      <c r="D289" s="3"/>
     </row>
     <row r="290" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D290" s="3" t="s">
-        <v>260</v>
-      </c>
+      <c r="D290" s="3"/>
     </row>
     <row r="291" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D291" s="3" t="s">
-        <v>261</v>
-      </c>
+      <c r="D291" s="3"/>
     </row>
     <row r="292" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D292" s="3" t="s">
-        <v>262</v>
-      </c>
+      <c r="D292" s="3"/>
     </row>
     <row r="293" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D293" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="D293" s="3"/>
     </row>
     <row r="294" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D294" s="3" t="s">
-        <v>264</v>
-      </c>
+      <c r="D294" s="3"/>
     </row>
     <row r="295" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D295" s="3" t="s">
-        <v>265</v>
-      </c>
+      <c r="D295" s="3"/>
     </row>
     <row r="296" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D296" s="3" t="s">
-        <v>266</v>
-      </c>
+      <c r="D296" s="3"/>
     </row>
     <row r="297" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D297" s="3" t="s">
-        <v>267</v>
-      </c>
+      <c r="D297" s="3"/>
     </row>
     <row r="298" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D298" s="3" t="s">
-        <v>268</v>
-      </c>
+      <c r="D298" s="3"/>
     </row>
     <row r="299" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D299" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="D299" s="3"/>
     </row>
     <row r="300" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D300" s="3" t="s">
-        <v>269</v>
-      </c>
+      <c r="D300" s="3"/>
     </row>
     <row r="301" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D301" s="3" t="s">
-        <v>222</v>
-      </c>
+      <c r="D301" s="3"/>
     </row>
     <row r="302" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D302" s="3" t="s">
-        <v>270</v>
-      </c>
+      <c r="D302" s="3"/>
     </row>
     <row r="303" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D303" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="D303" s="3"/>
     </row>
     <row r="304" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D304" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="D304" s="3"/>
     </row>
     <row r="305" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D305" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="D305" s="3"/>
     </row>
     <row r="306" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D306" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="D306" s="3"/>
     </row>
     <row r="307" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D307" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="D307" s="3"/>
     </row>
     <row r="308" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D308" s="3" t="s">
-        <v>272</v>
-      </c>
+      <c r="D308" s="3"/>
     </row>
     <row r="309" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D309" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="D309" s="3"/>
     </row>
     <row r="310" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D310" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="D310" s="3"/>
     </row>
     <row r="311" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D311" s="3" t="s">
-        <v>273</v>
-      </c>
+      <c r="D311" s="3"/>
     </row>
     <row r="312" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D312" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="D312" s="3"/>
     </row>
     <row r="313" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D313" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="D313" s="3"/>
     </row>
     <row r="314" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D314" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="D314" s="3"/>
     </row>
     <row r="315" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D315" s="3" t="s">
-        <v>274</v>
-      </c>
+      <c r="D315" s="3"/>
     </row>
     <row r="316" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D316" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="D316" s="3"/>
     </row>
     <row r="317" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D317" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="D317" s="3"/>
     </row>
     <row r="318" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D318" s="3" t="s">
-        <v>275</v>
-      </c>
+      <c r="D318" s="3"/>
     </row>
     <row r="319" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D319" s="3" t="s">
-        <v>276</v>
-      </c>
+      <c r="D319" s="3"/>
     </row>
     <row r="320" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D320" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="D320" s="3"/>
     </row>
     <row r="321" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D321" s="3" t="s">
-        <v>278</v>
-      </c>
+      <c r="D321" s="3"/>
     </row>
     <row r="322" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D322" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="D322" s="3"/>
     </row>
     <row r="323" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D323" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="D323" s="3"/>
     </row>
     <row r="324" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D324" s="3" t="s">
-        <v>279</v>
-      </c>
+      <c r="D324" s="3"/>
     </row>
     <row r="325" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D325" s="3" t="s">
-        <v>280</v>
-      </c>
+      <c r="D325" s="3"/>
     </row>
     <row r="326" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D326" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="D326" s="3"/>
     </row>
     <row r="327" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D327" s="3" t="s">
-        <v>281</v>
-      </c>
+      <c r="D327" s="3"/>
     </row>
     <row r="328" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D328" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="D328" s="3"/>
     </row>
     <row r="329" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D329" s="3" t="s">
-        <v>282</v>
-      </c>
+      <c r="D329" s="3"/>
     </row>
     <row r="330" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D330" s="3" t="s">
-        <v>283</v>
-      </c>
+      <c r="D330" s="3"/>
     </row>
     <row r="331" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D331" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="D331" s="3"/>
     </row>
     <row r="332" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D332" s="3" t="s">
-        <v>284</v>
-      </c>
+      <c r="D332" s="3"/>
     </row>
     <row r="333" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D333" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="D333" s="3"/>
     </row>
     <row r="334" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D334" s="3" t="s">
-        <v>285</v>
-      </c>
+      <c r="D334" s="3"/>
     </row>
     <row r="335" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D335" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="D335" s="3"/>
     </row>
     <row r="336" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D336" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="D336" s="3"/>
     </row>
     <row r="337" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D337" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="D337" s="3"/>
     </row>
     <row r="338" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D338" s="3" t="s">
-        <v>286</v>
-      </c>
+      <c r="D338" s="3"/>
     </row>
     <row r="339" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D339" s="3" t="s">
-        <v>223</v>
-      </c>
+      <c r="D339" s="3"/>
     </row>
     <row r="340" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D340" s="3" t="s">
-        <v>287</v>
-      </c>
+      <c r="D340" s="3"/>
     </row>
     <row r="341" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D341" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="D341" s="3"/>
     </row>
     <row r="342" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D342" s="3" t="s">
-        <v>227</v>
-      </c>
+      <c r="D342" s="3"/>
     </row>
     <row r="343" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D343" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="D343" s="3"/>
     </row>
     <row r="344" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D344" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="D344" s="3"/>
     </row>
     <row r="345" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D345" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="D345" s="3"/>
     </row>
     <row r="346" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D346" s="3" t="s">
-        <v>233</v>
-      </c>
+      <c r="D346" s="3"/>
     </row>
     <row r="347" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D347" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="D347" s="3"/>
     </row>
     <row r="348" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D348" s="3" t="s">
-        <v>288</v>
-      </c>
+      <c r="D348" s="3"/>
     </row>
     <row r="349" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D349" s="3" t="s">
-        <v>289</v>
-      </c>
+      <c r="D349" s="3"/>
     </row>
     <row r="350" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D350" s="3" t="s">
-        <v>290</v>
-      </c>
+      <c r="D350" s="3"/>
     </row>
     <row r="351" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D351" s="3" t="s">
-        <v>291</v>
-      </c>
+      <c r="D351" s="3"/>
     </row>
     <row r="352" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D352" s="3" t="s">
-        <v>201</v>
-      </c>
+      <c r="D352" s="3"/>
     </row>
     <row r="353" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D353" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="D353" s="3"/>
     </row>
     <row r="354" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D354" s="3" t="s">
-        <v>208</v>
-      </c>
+      <c r="D354" s="3"/>
     </row>
     <row r="355" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D355" s="3" t="s">
-        <v>292</v>
-      </c>
+      <c r="D355" s="3"/>
     </row>
     <row r="356" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D356" s="3" t="s">
-        <v>293</v>
-      </c>
+      <c r="D356" s="3"/>
     </row>
     <row r="357" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D357" s="3" t="s">
-        <v>294</v>
-      </c>
+      <c r="D357" s="3"/>
     </row>
     <row r="358" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D358" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="D358" s="3"/>
     </row>
     <row r="359" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D359" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="D359" s="3"/>
     </row>
     <row r="360" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D360" s="3" t="s">
-        <v>210</v>
-      </c>
+      <c r="D360" s="3"/>
     </row>
     <row r="361" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D361" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="D361" s="3"/>
     </row>
     <row r="362" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D362" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="D362" s="3"/>
     </row>
     <row r="363" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D363" s="3" t="s">
-        <v>212</v>
-      </c>
+      <c r="D363" s="3"/>
     </row>
     <row r="364" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D364" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="D364" s="3"/>
     </row>
     <row r="365" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D365" s="3" t="s">
-        <v>214</v>
-      </c>
+      <c r="D365" s="3"/>
     </row>
     <row r="366" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D366" s="3" t="s">
-        <v>177</v>
-      </c>
+      <c r="D366" s="3"/>
     </row>
     <row r="367" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D367" s="3" t="s">
-        <v>218</v>
-      </c>
+      <c r="D367" s="3"/>
     </row>
     <row r="368" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D368" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="D368" s="3"/>
     </row>
     <row r="369" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D369" s="3" t="s">
-        <v>295</v>
-      </c>
+      <c r="D369" s="3"/>
     </row>
     <row r="370" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D370" s="3" t="s">
-        <v>220</v>
-      </c>
+      <c r="D370" s="3"/>
     </row>
     <row r="371" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D371" s="3" t="s">
-        <v>296</v>
-      </c>
+      <c r="D371" s="3"/>
     </row>
     <row r="372" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D372" s="3" t="s">
-        <v>297</v>
-      </c>
+      <c r="D372" s="3"/>
     </row>
     <row r="373" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D373" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="D373" s="3"/>
     </row>
     <row r="374" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D374" s="3" t="s">
-        <v>298</v>
-      </c>
+      <c r="D374" s="3"/>
     </row>
     <row r="375" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D375" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="D375" s="3"/>
     </row>
     <row r="376" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D376" s="3" t="s">
-        <v>299</v>
-      </c>
+      <c r="D376" s="3"/>
     </row>
     <row r="377" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D377" s="3" t="s">
-        <v>178</v>
-      </c>
+      <c r="D377" s="3"/>
     </row>
     <row r="378" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D378" s="3" t="s">
-        <v>300</v>
-      </c>
+      <c r="D378" s="3"/>
     </row>
     <row r="379" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D379" s="3" t="s">
-        <v>231</v>
-      </c>
+      <c r="D379" s="3"/>
     </row>
     <row r="380" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D380" s="3" t="s">
-        <v>168</v>
-      </c>
+      <c r="D380" s="3"/>
     </row>
     <row r="381" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D381" s="3" t="s">
-        <v>301</v>
-      </c>
+      <c r="D381" s="3"/>
     </row>
     <row r="382" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D382" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="D382" s="3"/>
     </row>
     <row r="383" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D383" s="2"/>
@@ -6723,267 +5709,6 @@
       <c r="D1000" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D124" r:id="rId1" display="https://www.spotrac.com/redirect/player/8066/" xr:uid="{7909BC88-3C2E-2F4D-BCC0-6E3A689FDDED}"/>
-    <hyperlink ref="D125" r:id="rId2" display="https://www.spotrac.com/redirect/player/23614/" xr:uid="{FE92801F-5243-B24A-883C-04C62CF50886}"/>
-    <hyperlink ref="D126" r:id="rId3" display="https://www.spotrac.com/redirect/player/2609/" xr:uid="{CD889F48-93B1-A943-A7D8-1A08B73364F2}"/>
-    <hyperlink ref="D127" r:id="rId4" display="https://www.spotrac.com/redirect/player/23617/" xr:uid="{7EAF913E-9081-FC41-A23B-5C4023F95E53}"/>
-    <hyperlink ref="D128" r:id="rId5" display="https://www.spotrac.com/redirect/player/27658/" xr:uid="{167271CF-A48A-FF4C-8BCA-D5FF0FE9C463}"/>
-    <hyperlink ref="D129" r:id="rId6" display="https://www.spotrac.com/redirect/player/17874/" xr:uid="{07C18355-7494-3943-B9AE-25F000C8EF06}"/>
-    <hyperlink ref="D130" r:id="rId7" display="https://www.spotrac.com/redirect/player/2536/" xr:uid="{8726019D-BBA3-B941-B6D9-018D37B740AF}"/>
-    <hyperlink ref="D131" r:id="rId8" display="https://www.spotrac.com/redirect/player/6327/" xr:uid="{E5D56720-9C5B-4843-97D7-CF54A560F396}"/>
-    <hyperlink ref="D132" r:id="rId9" display="https://www.spotrac.com/redirect/player/23597/" xr:uid="{650052CD-9914-224F-92F7-F736EEFDDE9F}"/>
-    <hyperlink ref="D133" r:id="rId10" display="https://www.spotrac.com/redirect/player/13337/" xr:uid="{6EF6BB28-F9D3-A447-9B59-0E03372177C6}"/>
-    <hyperlink ref="D134" r:id="rId11" display="https://www.spotrac.com/redirect/player/10845/" xr:uid="{29B914CB-A562-9E41-BEDD-4261D2C286B9}"/>
-    <hyperlink ref="D135" r:id="rId12" display="https://www.spotrac.com/redirect/player/2532/" xr:uid="{9DB9B176-EB0D-9D48-B24D-409888E7AE1F}"/>
-    <hyperlink ref="D136" r:id="rId13" display="https://www.spotrac.com/redirect/player/23602/" xr:uid="{C51CDA3D-1C8B-F44A-88D4-9D4E39898F6E}"/>
-    <hyperlink ref="D137" r:id="rId14" display="https://www.spotrac.com/redirect/player/15390/" xr:uid="{E0CE33D8-FE94-794A-9A87-A9DC89457B71}"/>
-    <hyperlink ref="D138" r:id="rId15" display="https://www.spotrac.com/redirect/player/27003/" xr:uid="{EEC64BF2-3BE3-B04E-9D75-41ABC41920F1}"/>
-    <hyperlink ref="D139" r:id="rId16" display="https://www.spotrac.com/redirect/player/27000/" xr:uid="{B101810C-F4F7-BF42-88AA-EF0F6E904812}"/>
-    <hyperlink ref="D140" r:id="rId17" display="https://www.spotrac.com/redirect/player/17865/" xr:uid="{72FFFBEB-DE98-B240-A288-E2E5D94C0CA8}"/>
-    <hyperlink ref="D141" r:id="rId18" display="https://www.spotrac.com/redirect/player/6095/" xr:uid="{387520B5-B481-5C40-AF29-60241AD580DE}"/>
-    <hyperlink ref="D142" r:id="rId19" display="https://www.spotrac.com/redirect/player/15363/" xr:uid="{BC70AB22-A99F-A14B-8858-246C0486CA55}"/>
-    <hyperlink ref="D143" r:id="rId20" display="https://www.spotrac.com/redirect/player/23625/" xr:uid="{A67F92DC-20F1-3741-ADBD-E3487266281A}"/>
-    <hyperlink ref="D144" r:id="rId21" display="https://www.spotrac.com/redirect/player/13326/" xr:uid="{2D786586-D0D9-7C45-AE77-B25221B261C6}"/>
-    <hyperlink ref="D145" r:id="rId22" display="https://www.spotrac.com/redirect/player/21076/" xr:uid="{3C1F6937-99CC-9E46-95FF-E11F9F0407F0}"/>
-    <hyperlink ref="D146" r:id="rId23" display="https://www.spotrac.com/redirect/player/23828/" xr:uid="{CF914E8B-BD39-0942-9DF8-EDEBAB269B3D}"/>
-    <hyperlink ref="D147" r:id="rId24" display="https://www.spotrac.com/redirect/player/18252/" xr:uid="{F27FBD84-AAFE-FD4F-9ADC-9F037E4B4DC1}"/>
-    <hyperlink ref="D148" r:id="rId25" display="https://www.spotrac.com/redirect/player/31605/" xr:uid="{028256E8-2660-634A-B150-1202B3C25DB0}"/>
-    <hyperlink ref="D149" r:id="rId26" display="https://www.spotrac.com/redirect/player/8063/" xr:uid="{EF021DA2-B3EC-5C49-9F98-BB8CC3657BFC}"/>
-    <hyperlink ref="D150" r:id="rId27" display="https://www.spotrac.com/redirect/player/13338/" xr:uid="{44CD6BC8-9AE1-4F4E-B013-56553ABE4344}"/>
-    <hyperlink ref="D151" r:id="rId28" display="https://www.spotrac.com/redirect/player/13319/" xr:uid="{11FF339C-5386-C743-A5CE-0FB72B26EF6D}"/>
-    <hyperlink ref="D152" r:id="rId29" display="https://www.spotrac.com/redirect/player/17843/" xr:uid="{A06AB3F8-FE45-F346-A0CD-7940924BEE75}"/>
-    <hyperlink ref="D153" r:id="rId30" display="https://www.spotrac.com/redirect/player/23605/" xr:uid="{F358E67B-6327-714E-9CEA-C20D9AF6AFEF}"/>
-    <hyperlink ref="D154" r:id="rId31" display="https://www.spotrac.com/redirect/player/8075/" xr:uid="{8533F875-19E3-7944-946F-C02929CAF663}"/>
-    <hyperlink ref="D155" r:id="rId32" display="https://www.spotrac.com/redirect/player/15786/" xr:uid="{7A35F863-6200-D44A-A186-40B9ED18982B}"/>
-    <hyperlink ref="D156" r:id="rId33" display="https://www.spotrac.com/redirect/player/6277/" xr:uid="{6108320E-6FF3-3343-B162-DEB545E47508}"/>
-    <hyperlink ref="D157" r:id="rId34" display="https://www.spotrac.com/redirect/player/17842/" xr:uid="{F87D641B-ADE4-ED4F-8687-B81A75062D16}"/>
-    <hyperlink ref="D158" r:id="rId35" display="https://www.spotrac.com/redirect/player/2534/" xr:uid="{F5723C77-927E-0540-9AB5-BBC39961AF10}"/>
-    <hyperlink ref="D159" r:id="rId36" display="https://www.spotrac.com/redirect/player/8059/" xr:uid="{E83F2380-B098-7E4F-8D0A-B4D5623DC242}"/>
-    <hyperlink ref="D160" r:id="rId37" display="https://www.spotrac.com/redirect/player/11666/" xr:uid="{F5663AFC-E888-AA4D-B717-94EFF215FED7}"/>
-    <hyperlink ref="D161" r:id="rId38" display="https://www.spotrac.com/redirect/player/6492/" xr:uid="{3F154811-5E5B-5D49-8E9F-C491E110DC1A}"/>
-    <hyperlink ref="D162" r:id="rId39" display="https://www.spotrac.com/redirect/player/21577/" xr:uid="{F7886922-FD98-274C-ABF4-8E9354C7FE00}"/>
-    <hyperlink ref="D163" r:id="rId40" display="https://www.spotrac.com/redirect/player/11059/" xr:uid="{532132D1-5307-934C-9C62-F8218AE3E424}"/>
-    <hyperlink ref="D164" r:id="rId41" display="https://www.spotrac.com/redirect/player/27007/" xr:uid="{F0124EDA-950A-C142-8DFF-EE7F63C9F8D1}"/>
-    <hyperlink ref="D165" r:id="rId42" display="https://www.spotrac.com/redirect/player/6322/" xr:uid="{DA856E3C-65A0-D141-947B-3EDA143DC720}"/>
-    <hyperlink ref="D166" r:id="rId43" display="https://www.spotrac.com/redirect/player/27011/" xr:uid="{FB731EB2-759E-8645-996A-94976CC87BF1}"/>
-    <hyperlink ref="D167" r:id="rId44" display="https://www.spotrac.com/redirect/player/28041/" xr:uid="{860658B1-B100-4241-951B-D26393897F84}"/>
-    <hyperlink ref="D168" r:id="rId45" display="https://www.spotrac.com/redirect/player/6278/" xr:uid="{2CF672C4-9F14-F143-A280-B02DB50CD912}"/>
-    <hyperlink ref="D169" r:id="rId46" display="https://www.spotrac.com/redirect/player/8080/" xr:uid="{050AF04C-B71B-7449-BB1B-A2895CF42E5A}"/>
-    <hyperlink ref="D170" r:id="rId47" display="https://www.spotrac.com/redirect/player/24230/" xr:uid="{C04C8C72-2457-6A41-A7CB-C4BF3863F426}"/>
-    <hyperlink ref="D171" r:id="rId48" display="https://www.spotrac.com/redirect/player/7116/" xr:uid="{34E504E6-11B8-774D-A152-6D8F8D9522EC}"/>
-    <hyperlink ref="D172" r:id="rId49" display="https://www.spotrac.com/redirect/player/2720/" xr:uid="{73D1DDC3-35DF-CF47-AB11-291275BFDE72}"/>
-    <hyperlink ref="D173" r:id="rId50" display="https://www.spotrac.com/redirect/player/10823/" xr:uid="{0DFA5C31-3FA4-5B4B-B022-75754E203D86}"/>
-    <hyperlink ref="D174" r:id="rId51" display="https://www.spotrac.com/redirect/player/17850/" xr:uid="{451FF1E6-6006-8E4F-9509-6B1CBB1F8CD0}"/>
-    <hyperlink ref="D175" r:id="rId52" display="https://www.spotrac.com/redirect/player/15357/" xr:uid="{A570917C-0FCD-E345-9EA0-6F4AAFE25BA4}"/>
-    <hyperlink ref="D176" r:id="rId53" display="https://www.spotrac.com/redirect/player/17838/" xr:uid="{227A6576-7526-3344-9186-EF92448720B2}"/>
-    <hyperlink ref="D177" r:id="rId54" display="https://www.spotrac.com/redirect/player/32059/" xr:uid="{EC78C813-1D48-A74D-BD27-3C8B1F3ACB40}"/>
-    <hyperlink ref="D178" r:id="rId55" display="https://www.spotrac.com/redirect/player/6154/" xr:uid="{7A6F5F8C-246C-A544-8D2C-FB031D6444CD}"/>
-    <hyperlink ref="D179" r:id="rId56" display="https://www.spotrac.com/redirect/player/31594/" xr:uid="{A16558DD-6B50-444D-A766-60DB64A818E2}"/>
-    <hyperlink ref="D180" r:id="rId57" display="https://www.spotrac.com/redirect/player/13318/" xr:uid="{A6EFB05F-F3CE-5C45-9695-A29B97C9CF02}"/>
-    <hyperlink ref="D181" r:id="rId58" display="https://www.spotrac.com/redirect/player/17863/" xr:uid="{F4C8ADA9-A7CA-2E4A-9175-69892E4EF062}"/>
-    <hyperlink ref="D182" r:id="rId59" display="https://www.spotrac.com/redirect/player/13357/" xr:uid="{89DD0992-DBA5-2B42-9FD2-C886498A9C16}"/>
-    <hyperlink ref="D183" r:id="rId60" display="https://www.spotrac.com/redirect/player/17984/" xr:uid="{41639CD9-8A59-1343-9C03-466BBC271D9E}"/>
-    <hyperlink ref="D184" r:id="rId61" display="https://www.spotrac.com/redirect/player/20256/" xr:uid="{49D1421D-C3E8-7140-B459-F17A9B1A5B8C}"/>
-    <hyperlink ref="D185" r:id="rId62" display="https://www.spotrac.com/redirect/player/6149/" xr:uid="{D6F55117-2763-CD46-B9C5-BAAC1E6FCC56}"/>
-    <hyperlink ref="D186" r:id="rId63" display="https://www.spotrac.com/redirect/player/27975/" xr:uid="{515B6F5E-CA1C-9F40-AA5B-C42BF28E5095}"/>
-    <hyperlink ref="D187" r:id="rId64" display="https://www.spotrac.com/redirect/player/23626/" xr:uid="{A277791D-5F99-FE48-B464-F912CF1C925B}"/>
-    <hyperlink ref="D188" r:id="rId65" display="https://www.spotrac.com/redirect/player/23647/" xr:uid="{7D02436F-A123-A441-9FAB-7C74247385BF}"/>
-    <hyperlink ref="D189" r:id="rId66" display="https://www.spotrac.com/redirect/player/13330/" xr:uid="{A11BDEF4-BBE6-914E-953D-D73CB278DDA9}"/>
-    <hyperlink ref="D190" r:id="rId67" display="https://www.spotrac.com/redirect/player/70680/" xr:uid="{D62E6937-E22D-694A-9B40-510C073F177B}"/>
-    <hyperlink ref="D191" r:id="rId68" display="https://www.spotrac.com/redirect/player/17840/" xr:uid="{838DD59F-E7F3-DC46-B5CA-6AF2DCC1A669}"/>
-    <hyperlink ref="D192" r:id="rId69" display="https://www.spotrac.com/redirect/player/6159/" xr:uid="{D60B3311-F8E6-5E45-884A-0337FEF6FD4C}"/>
-    <hyperlink ref="D193" r:id="rId70" display="https://www.spotrac.com/redirect/player/6147/" xr:uid="{B163D6BA-33FE-F546-9AA2-2C51E3D906FD}"/>
-    <hyperlink ref="D194" r:id="rId71" display="https://www.spotrac.com/redirect/player/2657/" xr:uid="{796751C9-47AF-E94B-906D-417758E23BC3}"/>
-    <hyperlink ref="D195" r:id="rId72" display="https://www.spotrac.com/redirect/player/27008/" xr:uid="{15AC937D-310B-E541-83F8-BA60F3C0310C}"/>
-    <hyperlink ref="D196" r:id="rId73" display="https://www.spotrac.com/redirect/player/20796/" xr:uid="{C440E66F-F7AC-6741-829D-AF842C6C5008}"/>
-    <hyperlink ref="D197" r:id="rId74" display="https://www.spotrac.com/redirect/player/20264/" xr:uid="{7DB86955-8011-2249-B3CD-21E101618CE7}"/>
-    <hyperlink ref="D198" r:id="rId75" display="https://www.spotrac.com/redirect/player/20219/" xr:uid="{9509389F-0A11-2A46-AA35-952370107AE7}"/>
-    <hyperlink ref="D199" r:id="rId76" display="https://www.spotrac.com/redirect/player/13334/" xr:uid="{90DEB37F-0DCC-AD4E-A3E7-163FA91E2C3D}"/>
-    <hyperlink ref="D200" r:id="rId77" display="https://www.spotrac.com/redirect/player/23603/" xr:uid="{F7F78C9E-05E5-2C4D-8DFD-524913623C0D}"/>
-    <hyperlink ref="D201" r:id="rId78" display="https://www.spotrac.com/redirect/player/23623/" xr:uid="{1E214BB6-9713-7440-B4FB-11C80FC3243B}"/>
-    <hyperlink ref="D202" r:id="rId79" display="https://www.spotrac.com/redirect/player/27014/" xr:uid="{B2E66935-AE4E-FE4E-A40D-973C5E74A52E}"/>
-    <hyperlink ref="D203" r:id="rId80" display="https://www.spotrac.com/redirect/player/27016/" xr:uid="{C6A8AB66-1000-4B43-BD5F-4AA12A3343E2}"/>
-    <hyperlink ref="D204" r:id="rId81" display="https://www.spotrac.com/redirect/player/27013/" xr:uid="{1EDF53A5-199D-EC45-8AE3-B78E9BFB0FCA}"/>
-    <hyperlink ref="D205" r:id="rId82" display="https://www.spotrac.com/redirect/player/26991/" xr:uid="{06C9B995-21ED-9945-BD99-63DC84F52268}"/>
-    <hyperlink ref="D206" r:id="rId83" display="https://www.spotrac.com/redirect/player/15403/" xr:uid="{614ECCEC-A9F1-1548-A19F-102A0124D400}"/>
-    <hyperlink ref="D207" r:id="rId84" display="https://www.spotrac.com/redirect/player/32409/" xr:uid="{77EAAABD-4DC2-934A-A0A5-C8A47F0535F1}"/>
-    <hyperlink ref="D208" r:id="rId85" display="https://www.spotrac.com/redirect/player/28087/" xr:uid="{5A79DC19-B271-9947-92A3-B63404009A1D}"/>
-    <hyperlink ref="D209" r:id="rId86" display="https://www.spotrac.com/redirect/player/32411/" xr:uid="{6403A1A5-DCD9-3B48-91EE-88AF685DF0B8}"/>
-    <hyperlink ref="D210" r:id="rId87" display="https://www.spotrac.com/redirect/player/70706/" xr:uid="{3DA9939E-E8D6-104A-ADC2-27D9876C2850}"/>
-    <hyperlink ref="D211" r:id="rId88" display="https://www.spotrac.com/redirect/player/10865/" xr:uid="{D7A94442-1D61-3E4F-9AF6-12CD5D4E223E}"/>
-    <hyperlink ref="D212" r:id="rId89" display="https://www.spotrac.com/redirect/player/6901/" xr:uid="{19E78640-E0D1-C548-B4C7-7591568FFF32}"/>
-    <hyperlink ref="D213" r:id="rId90" display="https://www.spotrac.com/redirect/player/6896/" xr:uid="{8F68C73A-990F-9F41-B3C5-D987D9CABCA4}"/>
-    <hyperlink ref="D214" r:id="rId91" display="https://www.spotrac.com/redirect/player/2754/" xr:uid="{CCB3B74D-CB33-C846-988D-AD8FBBE0D91A}"/>
-    <hyperlink ref="D215" r:id="rId92" display="https://www.spotrac.com/redirect/player/8107/" xr:uid="{F4C13E30-857A-294A-8FCA-7483F71C100E}"/>
-    <hyperlink ref="D216" r:id="rId93" display="https://www.spotrac.com/redirect/player/6117/" xr:uid="{81BBDCE5-05FF-1F4E-A363-9FA61316783B}"/>
-    <hyperlink ref="D217" r:id="rId94" display="https://www.spotrac.com/redirect/player/2672/" xr:uid="{729CA7A9-01A2-F843-B5CC-FC0BD93D87FF}"/>
-    <hyperlink ref="D218" r:id="rId95" display="https://www.spotrac.com/redirect/player/2222/" xr:uid="{8031266A-0C66-1343-9EEF-1894C3844747}"/>
-    <hyperlink ref="D219" r:id="rId96" display="https://www.spotrac.com/redirect/player/2549/" xr:uid="{9042CC84-D132-E248-9385-F51F0D6A60AC}"/>
-    <hyperlink ref="D220" r:id="rId97" display="https://www.spotrac.com/redirect/player/8053/" xr:uid="{D373DF4C-2E43-6D43-A7F5-CAFF593B00D0}"/>
-    <hyperlink ref="D221" r:id="rId98" display="https://www.spotrac.com/redirect/player/6501/" xr:uid="{AD8BA361-F64C-DC4E-9EAE-E41A25B765D8}"/>
-    <hyperlink ref="D222" r:id="rId99" display="https://www.spotrac.com/redirect/player/2513/" xr:uid="{45431333-272B-AD47-B69A-F574C845DFEB}"/>
-    <hyperlink ref="D223" r:id="rId100" display="https://www.spotrac.com/redirect/player/6302/" xr:uid="{4B859437-7C88-0E49-992C-B0CA5BB6039B}"/>
-    <hyperlink ref="D224" r:id="rId101" display="https://www.spotrac.com/redirect/player/6279/" xr:uid="{2B61BC5A-16D1-FB47-A59E-7B641A2B5B58}"/>
-    <hyperlink ref="D225" r:id="rId102" display="https://www.spotrac.com/redirect/player/2640/" xr:uid="{CA2ADEA8-556F-EA49-B22A-347593E7BCEE}"/>
-    <hyperlink ref="D226" r:id="rId103" display="https://www.spotrac.com/redirect/player/2283/" xr:uid="{EAC1A18A-0351-B844-B705-28B9AC47EFF2}"/>
-    <hyperlink ref="D227" r:id="rId104" display="https://www.spotrac.com/redirect/player/8064/" xr:uid="{13D6611B-4B95-4A41-A89D-63285724D20A}"/>
-    <hyperlink ref="D228" r:id="rId105" display="https://www.spotrac.com/redirect/player/74215/" xr:uid="{68A7DD24-92C5-F14F-B27A-D93E3F90155E}"/>
-    <hyperlink ref="D229" r:id="rId106" display="https://www.spotrac.com/redirect/player/10818/" xr:uid="{030EABDA-5AEE-D945-BE73-FA4136854EDD}"/>
-    <hyperlink ref="D230" r:id="rId107" display="https://www.spotrac.com/redirect/player/11079/" xr:uid="{490A320B-A156-7D43-991E-D4F516BD3A24}"/>
-    <hyperlink ref="D231" r:id="rId108" display="https://www.spotrac.com/redirect/player/6915/" xr:uid="{6153FBDD-BB06-6F44-845D-DC6DEFB3619F}"/>
-    <hyperlink ref="D232" r:id="rId109" display="https://www.spotrac.com/redirect/player/10817/" xr:uid="{36E4B62D-0351-FC41-B80C-55B6D03FF4AF}"/>
-    <hyperlink ref="D233" r:id="rId110" display="https://www.spotrac.com/redirect/player/13333/" xr:uid="{D7295DC3-A74A-6842-83BE-58C3E9B4188F}"/>
-    <hyperlink ref="D234" r:id="rId111" display="https://www.spotrac.com/redirect/player/13315/" xr:uid="{DF1ABD9B-7D53-D648-99DD-C95D42BE5755}"/>
-    <hyperlink ref="D235" r:id="rId112" display="https://www.spotrac.com/redirect/player/13316/" xr:uid="{22757B33-E482-6A4E-AC2F-F99EBD56D123}"/>
-    <hyperlink ref="D236" r:id="rId113" display="https://www.spotrac.com/redirect/player/13536/" xr:uid="{CD8D3448-792B-7041-88EC-54BF94C7F102}"/>
-    <hyperlink ref="D237" r:id="rId114" display="https://www.spotrac.com/redirect/player/13320/" xr:uid="{85B64F6C-BD42-834E-8A84-67616F31385D}"/>
-    <hyperlink ref="D238" r:id="rId115" display="https://www.spotrac.com/redirect/player/13336/" xr:uid="{82997C01-EF2D-CC42-8EB2-0B8DC3243FB6}"/>
-    <hyperlink ref="D239" r:id="rId116" display="https://www.spotrac.com/redirect/player/13317/" xr:uid="{E740FB69-F106-B448-B1FD-A3BE9CD240D2}"/>
-    <hyperlink ref="D240" r:id="rId117" display="https://www.spotrac.com/redirect/player/15824/" xr:uid="{9F0AA946-DFB2-6046-B9B9-FCCB60C5C21B}"/>
-    <hyperlink ref="D241" r:id="rId118" display="https://www.spotrac.com/redirect/player/15362/" xr:uid="{F25E3A2A-2965-CF4F-9E58-905DAFC1B5CE}"/>
-    <hyperlink ref="D242" r:id="rId119" display="https://www.spotrac.com/redirect/player/15375/" xr:uid="{8E226C2F-E7E0-5B4D-9E5E-F751BCB951E5}"/>
-    <hyperlink ref="D243" r:id="rId120" display="https://www.spotrac.com/redirect/player/17831/" xr:uid="{2B23F7B2-5D3D-9140-AB8F-811DE55F4AEE}"/>
-    <hyperlink ref="D244" r:id="rId121" display="https://www.spotrac.com/redirect/player/17836/" xr:uid="{6287DB75-A193-5640-ACC9-725D83887865}"/>
-    <hyperlink ref="D245" r:id="rId122" display="https://www.spotrac.com/redirect/player/17837/" xr:uid="{0BA7D2DB-C2DD-674E-B1BF-02E3D20858E4}"/>
-    <hyperlink ref="D246" r:id="rId123" display="https://www.spotrac.com/redirect/player/13360/" xr:uid="{B3AF1319-F700-C14B-830E-51E0C580E7AE}"/>
-    <hyperlink ref="D247" r:id="rId124" display="https://www.spotrac.com/redirect/player/6917/" xr:uid="{098D01DA-716E-E346-8327-2630C1A04805}"/>
-    <hyperlink ref="D248" r:id="rId125" display="https://www.spotrac.com/redirect/player/20229/" xr:uid="{19AAF07D-991F-3D4A-94F3-9683E8ECCB50}"/>
-    <hyperlink ref="D249" r:id="rId126" display="https://www.spotrac.com/redirect/player/20226/" xr:uid="{1B143939-6CC3-0F4C-9518-5555A92FD983}"/>
-    <hyperlink ref="D250" r:id="rId127" display="https://www.spotrac.com/redirect/player/23670/" xr:uid="{EB48B852-45B4-1347-BFF2-62DD6D4714F1}"/>
-    <hyperlink ref="D251" r:id="rId128" display="https://www.spotrac.com/redirect/player/21066/" xr:uid="{A3EE1EB1-A1E1-6D46-957B-606D75D95D27}"/>
-    <hyperlink ref="D252" r:id="rId129" display="https://www.spotrac.com/redirect/player/20275/" xr:uid="{0BB70515-23BD-EF4F-8B08-B0867848430C}"/>
-    <hyperlink ref="D253" r:id="rId130" display="https://www.spotrac.com/redirect/player/23633/" xr:uid="{979A3578-64F1-2349-98F4-059D0BBB6E84}"/>
-    <hyperlink ref="D254" r:id="rId131" display="https://www.spotrac.com/redirect/player/23612/" xr:uid="{FED1994A-5DC3-644E-B958-DD83E52A467F}"/>
-    <hyperlink ref="D255" r:id="rId132" display="https://www.spotrac.com/redirect/player/20940/" xr:uid="{9DAA3CA0-2A9B-E740-9338-82ED3BDB3BE2}"/>
-    <hyperlink ref="D256" r:id="rId133" display="https://www.spotrac.com/redirect/player/23615/" xr:uid="{BCD63527-6C66-824C-900C-3C97F677E554}"/>
-    <hyperlink ref="D257" r:id="rId134" display="https://www.spotrac.com/redirect/player/23604/" xr:uid="{9762C3BC-F092-164F-B7D7-660AEF2B54CF}"/>
-    <hyperlink ref="D258" r:id="rId135" display="https://www.spotrac.com/redirect/player/23640/" xr:uid="{F0649203-D2BC-9441-B63C-67361CAA1E77}"/>
-    <hyperlink ref="D259" r:id="rId136" display="https://www.spotrac.com/redirect/player/17846/" xr:uid="{B773FE4C-5148-A244-B92C-D099473849F2}"/>
-    <hyperlink ref="D260" r:id="rId137" display="https://www.spotrac.com/redirect/player/23632/" xr:uid="{58DDAE25-CCCC-5440-9CE3-071477E31225}"/>
-    <hyperlink ref="D261" r:id="rId138" display="https://www.spotrac.com/redirect/player/23606/" xr:uid="{94B40310-2257-774A-B148-20B2A439357A}"/>
-    <hyperlink ref="D262" r:id="rId139" display="https://www.spotrac.com/redirect/player/27827/" xr:uid="{F098AD1C-9959-E948-BCF1-1E2592CE0732}"/>
-    <hyperlink ref="D263" r:id="rId140" display="https://www.spotrac.com/redirect/player/27005/" xr:uid="{C648E9DC-DEF3-D942-8DE5-0F5982758235}"/>
-    <hyperlink ref="D264" r:id="rId141" display="https://www.spotrac.com/redirect/player/32680/" xr:uid="{AA59D44E-F90E-8B49-8731-D2F28F15E1D7}"/>
-    <hyperlink ref="D265" r:id="rId142" display="https://www.spotrac.com/redirect/player/31596/" xr:uid="{F9B9BA8B-9905-4C4C-9CF0-4B504D0A7862}"/>
-    <hyperlink ref="D266" r:id="rId143" display="https://www.spotrac.com/redirect/player/32044/" xr:uid="{5217080F-53DF-5348-9C75-AF2CC905F817}"/>
-    <hyperlink ref="D267" r:id="rId144" display="https://www.spotrac.com/redirect/player/31614/" xr:uid="{4D760733-5663-834F-AEBF-9EA27AB4D94B}"/>
-    <hyperlink ref="D268" r:id="rId145" display="https://www.spotrac.com/redirect/player/32403/" xr:uid="{7E6887DA-BC93-C24B-A119-B223CDD6518B}"/>
-    <hyperlink ref="D269" r:id="rId146" display="https://www.spotrac.com/redirect/player/32319/" xr:uid="{171C54BD-7C8E-2B45-A5B7-A829D3A91A9C}"/>
-    <hyperlink ref="D270" r:id="rId147" display="https://www.spotrac.com/redirect/player/32678/" xr:uid="{E6728A83-0B51-BA43-99CF-A34730DD8927}"/>
-    <hyperlink ref="D271" r:id="rId148" display="https://www.spotrac.com/redirect/player/32778/" xr:uid="{AFCDC40D-F76F-1043-960A-AC38818E604C}"/>
-    <hyperlink ref="D272" r:id="rId149" display="https://www.spotrac.com/redirect/player/31610/" xr:uid="{FA1681F9-9C82-094B-8916-F643D4872836}"/>
-    <hyperlink ref="D273" r:id="rId150" display="https://www.spotrac.com/redirect/player/31972/" xr:uid="{9DBFBFAF-901D-5443-AFFE-A081D1E810B5}"/>
-    <hyperlink ref="D274" r:id="rId151" display="https://www.spotrac.com/redirect/player/31609/" xr:uid="{30758EF9-0ADC-4540-8257-9105F9F3C463}"/>
-    <hyperlink ref="D275" r:id="rId152" display="https://www.spotrac.com/redirect/player/70696/" xr:uid="{36FE87A3-85DE-6D45-A400-8041ACFB08A1}"/>
-    <hyperlink ref="D276" r:id="rId153" display="https://www.spotrac.com/redirect/player/70699/" xr:uid="{73033971-F3F4-A94D-900A-9775620942D5}"/>
-    <hyperlink ref="D277" r:id="rId154" display="https://www.spotrac.com/redirect/player/70711/" xr:uid="{E7E9B179-8D20-9A45-A02B-C449F39A9FFB}"/>
-    <hyperlink ref="D278" r:id="rId155" display="https://www.spotrac.com/redirect/player/32812/" xr:uid="{87CCFE69-2553-3645-BCCC-02896E6D75B5}"/>
-    <hyperlink ref="D279" r:id="rId156" display="https://www.spotrac.com/redirect/player/10809/" xr:uid="{D950B179-DE02-BA49-87A0-DA658DD54E8F}"/>
-    <hyperlink ref="D280" r:id="rId157" display="https://www.spotrac.com/redirect/player/20207/" xr:uid="{AD7204A6-43A6-D944-B3A6-CE05F4EDA037}"/>
-    <hyperlink ref="D281" r:id="rId158" display="https://www.spotrac.com/redirect/player/6891/" xr:uid="{4EA11ADC-50F5-9E42-95B1-1F9D74958E00}"/>
-    <hyperlink ref="D282" r:id="rId159" display="https://www.spotrac.com/redirect/player/20778/" xr:uid="{CFE70C97-4B7E-3B40-BCC5-41081F9086F0}"/>
-    <hyperlink ref="D283" r:id="rId160" display="https://www.spotrac.com/redirect/player/8094/" xr:uid="{DF6092AF-5EC1-9A45-B091-BC1AC63D221E}"/>
-    <hyperlink ref="D284" r:id="rId161" display="https://www.spotrac.com/redirect/player/15385/" xr:uid="{01DBE454-A2EC-C243-9FF8-1A861376B41A}"/>
-    <hyperlink ref="D285" r:id="rId162" display="https://www.spotrac.com/redirect/player/15379/" xr:uid="{32C3C498-EF71-BC49-95EF-070910A76423}"/>
-    <hyperlink ref="D286" r:id="rId163" display="https://www.spotrac.com/redirect/player/8065/" xr:uid="{6F6F6F51-380B-D145-B881-D8AE37E9C791}"/>
-    <hyperlink ref="D287" r:id="rId164" display="https://www.spotrac.com/redirect/player/6138/" xr:uid="{173A087D-F9B7-CC4E-8683-E2624EE75127}"/>
-    <hyperlink ref="D288" r:id="rId165" display="https://www.spotrac.com/redirect/player/15391/" xr:uid="{90B84D7F-5EA4-724A-86D0-6CB752CB1631}"/>
-    <hyperlink ref="D289" r:id="rId166" display="https://www.spotrac.com/redirect/player/20224/" xr:uid="{8BDDAA65-16A0-9142-BA7A-842F8ED1EEF2}"/>
-    <hyperlink ref="D290" r:id="rId167" display="https://www.spotrac.com/redirect/player/15398/" xr:uid="{3B0D82B7-EAE5-C649-852A-2DD360FCE4A9}"/>
-    <hyperlink ref="D291" r:id="rId168" display="https://www.spotrac.com/redirect/player/18218/" xr:uid="{82DA1996-D115-9B42-997F-F267AD67792E}"/>
-    <hyperlink ref="D292" r:id="rId169" display="https://www.spotrac.com/redirect/player/13321/" xr:uid="{FF2D1DA9-C325-E246-AB4E-2BB3B2ACA034}"/>
-    <hyperlink ref="D293" r:id="rId170" display="https://www.spotrac.com/redirect/player/27012/" xr:uid="{0E6971E7-06A1-5449-B8DE-B2966FDA6B4D}"/>
-    <hyperlink ref="D294" r:id="rId171" display="https://www.spotrac.com/redirect/player/10859/" xr:uid="{5EA839C2-6A7B-0E45-9B90-DC52F5748948}"/>
-    <hyperlink ref="D295" r:id="rId172" display="https://www.spotrac.com/redirect/player/6884/" xr:uid="{7138BE66-E218-BA42-99B1-465AF318BAD2}"/>
-    <hyperlink ref="D296" r:id="rId173" display="https://www.spotrac.com/redirect/player/15364/" xr:uid="{919D044A-D4EA-8F4D-B8F9-1717CAD936ED}"/>
-    <hyperlink ref="D297" r:id="rId174" display="https://www.spotrac.com/redirect/player/20214/" xr:uid="{D4BD6F91-2E16-374F-BCA1-92D96625AE21}"/>
-    <hyperlink ref="D298" r:id="rId175" display="https://www.spotrac.com/redirect/player/13335/" xr:uid="{EF38BEA9-EA7F-894E-8FCD-2173C17CD1EC}"/>
-    <hyperlink ref="D299" r:id="rId176" display="https://www.spotrac.com/redirect/player/20220/" xr:uid="{C749E11C-5E6E-3A42-BD71-1C8CA5E2D897}"/>
-    <hyperlink ref="D300" r:id="rId177" display="https://www.spotrac.com/redirect/player/6088/" xr:uid="{5C667CC5-87E5-7948-838A-8E093D554905}"/>
-    <hyperlink ref="D301" r:id="rId178" display="https://www.spotrac.com/redirect/player/15375/" xr:uid="{B9A1CFFF-5BC7-AA4B-B3B9-D70C36D008E0}"/>
-    <hyperlink ref="D302" r:id="rId179" display="https://www.spotrac.com/redirect/player/8054/" xr:uid="{A9293CCD-7AE6-624D-8552-9779CDC78870}"/>
-    <hyperlink ref="D303" r:id="rId180" display="https://www.spotrac.com/redirect/player/6313/" xr:uid="{6C32C847-F1F8-EE40-8E9F-F76DF1BC4561}"/>
-    <hyperlink ref="D304" r:id="rId181" display="https://www.spotrac.com/redirect/player/21067/" xr:uid="{3AEF3648-034E-DD4B-BFCC-4095FE64A1FA}"/>
-    <hyperlink ref="D305" r:id="rId182" display="https://www.spotrac.com/redirect/player/17860/" xr:uid="{542F39DC-243F-C145-B1FC-1BE9F8B91746}"/>
-    <hyperlink ref="D306" r:id="rId183" display="https://www.spotrac.com/redirect/player/11441/" xr:uid="{666BE6CC-EA94-9342-BD7D-D55B3FC231D4}"/>
-    <hyperlink ref="D307" r:id="rId184" display="https://www.spotrac.com/redirect/player/6146/" xr:uid="{F6EEDD54-06F5-A74D-88BD-45A90727E165}"/>
-    <hyperlink ref="D308" r:id="rId185" display="https://www.spotrac.com/redirect/player/17869/" xr:uid="{A4F5E76B-F4B3-BB40-B76E-CC1AC5968364}"/>
-    <hyperlink ref="D309" r:id="rId186" display="https://www.spotrac.com/redirect/player/2222/" xr:uid="{9B6F0D13-7DCB-8E4D-A000-1637C7725438}"/>
-    <hyperlink ref="D310" r:id="rId187" display="https://www.spotrac.com/redirect/player/11666/" xr:uid="{448328A2-FDEE-CE4F-A300-4CED0C5BCF04}"/>
-    <hyperlink ref="D311" r:id="rId188" display="https://www.spotrac.com/redirect/player/11850/" xr:uid="{0C0B2A66-1E60-0348-90C2-56359BEF4285}"/>
-    <hyperlink ref="D312" r:id="rId189" display="https://www.spotrac.com/redirect/player/23671/" xr:uid="{BF407DAD-C910-954D-B730-06FC1758B40F}"/>
-    <hyperlink ref="D313" r:id="rId190" display="https://www.spotrac.com/redirect/player/26998/" xr:uid="{C0D603E2-C1C0-7B48-802A-977216654188}"/>
-    <hyperlink ref="D314" r:id="rId191" display="https://www.spotrac.com/redirect/player/2754/" xr:uid="{F93837AA-0AE7-E146-A0B7-FA8655EA0EAA}"/>
-    <hyperlink ref="D315" r:id="rId192" display="https://www.spotrac.com/redirect/player/20210/" xr:uid="{12E0A063-8D62-914B-A77D-437BC8F8BEB7}"/>
-    <hyperlink ref="D316" r:id="rId193" display="https://www.spotrac.com/redirect/player/10818/" xr:uid="{A90D6D3F-39F3-004C-87BA-DFA5A3A6B621}"/>
-    <hyperlink ref="D317" r:id="rId194" display="https://www.spotrac.com/redirect/player/23599/" xr:uid="{DCA4B809-504B-9D42-B4BE-4E587464C31C}"/>
-    <hyperlink ref="D318" r:id="rId195" display="https://www.spotrac.com/redirect/player/13322/" xr:uid="{9C11905B-412A-B947-9629-BE8307DE91BB}"/>
-    <hyperlink ref="D319" r:id="rId196" display="https://www.spotrac.com/redirect/player/10819/" xr:uid="{20AC3DC2-B9DC-D54D-93A8-C411BFBD502C}"/>
-    <hyperlink ref="D320" r:id="rId197" display="https://www.spotrac.com/redirect/player/32170/" xr:uid="{F6CB8A4A-1730-354A-AC2E-05F4A07940CD}"/>
-    <hyperlink ref="D321" r:id="rId198" display="https://www.spotrac.com/redirect/player/17834/" xr:uid="{1A1F196B-3A2E-264C-81E6-654CEAA8B46D}"/>
-    <hyperlink ref="D322" r:id="rId199" display="https://www.spotrac.com/redirect/player/17850/" xr:uid="{1A4B5928-2C8D-F547-8068-2962CA890A57}"/>
-    <hyperlink ref="D323" r:id="rId200" display="https://www.spotrac.com/redirect/player/6147/" xr:uid="{CA17F045-F96B-3D49-9438-CC14BB949550}"/>
-    <hyperlink ref="D324" r:id="rId201" display="https://www.spotrac.com/redirect/player/13324/" xr:uid="{A1540BF8-A0D1-9D41-9311-C071D4EC8394}"/>
-    <hyperlink ref="D325" r:id="rId202" display="https://www.spotrac.com/redirect/player/27758/" xr:uid="{DB840395-1E39-BC4E-8EFD-14C3191C5F56}"/>
-    <hyperlink ref="D326" r:id="rId203" display="https://www.spotrac.com/redirect/player/8063/" xr:uid="{061C86DF-E778-BD4B-9342-5041B9F4C504}"/>
-    <hyperlink ref="D327" r:id="rId204" display="https://www.spotrac.com/redirect/player/47359/" xr:uid="{B1CF24E4-26E8-FB4B-A52D-B5293163447B}"/>
-    <hyperlink ref="D328" r:id="rId205" display="https://www.spotrac.com/redirect/player/6901/" xr:uid="{976A78B8-7C25-A44C-887A-BAC91D327763}"/>
-    <hyperlink ref="D329" r:id="rId206" display="https://www.spotrac.com/redirect/player/27015/" xr:uid="{A6C6F8B5-7278-8E4E-81C9-FF9CE306674F}"/>
-    <hyperlink ref="D330" r:id="rId207" display="https://www.spotrac.com/redirect/player/24953/" xr:uid="{18D9F826-437F-3747-A196-ACD6D5DEE83A}"/>
-    <hyperlink ref="D331" r:id="rId208" display="https://www.spotrac.com/redirect/player/28052/" xr:uid="{63DFED89-09C8-5045-9DE1-ECC7B75E36E3}"/>
-    <hyperlink ref="D332" r:id="rId209" display="https://www.spotrac.com/redirect/player/6122/" xr:uid="{F45D4862-F356-A34A-A478-2D7B8DA34186}"/>
-    <hyperlink ref="D333" r:id="rId210" display="https://www.spotrac.com/redirect/player/13319/" xr:uid="{43AD0825-9C05-174B-B25D-BDA9B2E06C3C}"/>
-    <hyperlink ref="D334" r:id="rId211" display="https://www.spotrac.com/redirect/player/32461/" xr:uid="{B958898D-A378-5648-9D1D-5FA052BBCBF6}"/>
-    <hyperlink ref="D335" r:id="rId212" display="https://www.spotrac.com/redirect/player/20796/" xr:uid="{17081443-8EBE-C848-A7C5-7EB1D6B105E5}"/>
-    <hyperlink ref="D336" r:id="rId213" display="https://www.spotrac.com/redirect/player/15362/" xr:uid="{6C79913F-145B-8948-9B21-267C64B4DB2F}"/>
-    <hyperlink ref="D337" r:id="rId214" display="https://www.spotrac.com/redirect/player/6492/" xr:uid="{4F2E09CF-8E41-734D-A388-D2E3227F3427}"/>
-    <hyperlink ref="D338" r:id="rId215" display="https://www.spotrac.com/redirect/player/27627/" xr:uid="{11FA9CAC-2FE9-B346-B0DD-B423709BE180}"/>
-    <hyperlink ref="D339" r:id="rId216" display="https://www.spotrac.com/redirect/player/17831/" xr:uid="{972D8DED-11CA-A34A-BEF1-79027246FC8F}"/>
-    <hyperlink ref="D340" r:id="rId217" display="https://www.spotrac.com/redirect/player/17847/" xr:uid="{CAA172B5-1E07-664F-BF06-4A6430C242E6}"/>
-    <hyperlink ref="D341" r:id="rId218" display="https://www.spotrac.com/redirect/player/20235/" xr:uid="{71A8FEAE-98D4-E04A-9C98-6D1FD5325B91}"/>
-    <hyperlink ref="D342" r:id="rId219" display="https://www.spotrac.com/redirect/player/20226/" xr:uid="{10A236CF-5338-3740-9676-2049D8AB36B6}"/>
-    <hyperlink ref="D343" r:id="rId220" display="https://www.spotrac.com/redirect/player/10823/" xr:uid="{17CF607E-36D7-1D4D-AF57-2ADAFF13246A}"/>
-    <hyperlink ref="D344" r:id="rId221" display="https://www.spotrac.com/redirect/player/6489/" xr:uid="{E8279A1A-FF85-6247-8B4A-D02321703735}"/>
-    <hyperlink ref="D345" r:id="rId222" display="https://www.spotrac.com/redirect/player/23626/" xr:uid="{2077E2ED-8D39-D046-A7EB-6E29519FC29A}"/>
-    <hyperlink ref="D346" r:id="rId223" display="https://www.spotrac.com/redirect/player/23640/" xr:uid="{63EFA6C6-36A6-AC4B-A1F2-0D841483E57E}"/>
-    <hyperlink ref="D347" r:id="rId224" display="https://www.spotrac.com/redirect/player/8057/" xr:uid="{ECB6DCAD-BE7D-764B-9A8E-DD55EBC2102E}"/>
-    <hyperlink ref="D348" r:id="rId225" display="https://www.spotrac.com/redirect/player/27806/" xr:uid="{EAA20D10-9F88-0E48-AB95-4F10414C128C}"/>
-    <hyperlink ref="D349" r:id="rId226" display="https://www.spotrac.com/redirect/player/13363/" xr:uid="{D4276FCE-A3E5-1B47-B113-2711BA1CF585}"/>
-    <hyperlink ref="D350" r:id="rId227" display="https://www.spotrac.com/redirect/player/32756/" xr:uid="{6F2B344A-7CDB-B84C-A427-DB198D259952}"/>
-    <hyperlink ref="D351" r:id="rId228" display="https://www.spotrac.com/redirect/player/32418/" xr:uid="{D3498ADC-6DFB-624A-806E-15609CE47423}"/>
-    <hyperlink ref="D352" r:id="rId229" display="https://www.spotrac.com/redirect/player/6896/" xr:uid="{3B5B8BAC-36F4-5344-9BE7-1B9AB90194C9}"/>
-    <hyperlink ref="D353" r:id="rId230" display="https://www.spotrac.com/redirect/player/6149/" xr:uid="{B9AA63B9-6567-0F48-90CE-7E76DD5C3373}"/>
-    <hyperlink ref="D354" r:id="rId231" display="https://www.spotrac.com/redirect/player/6302/" xr:uid="{BD05FC95-1C59-314E-8A5A-10CAAF7FD1BD}"/>
-    <hyperlink ref="D355" r:id="rId232" display="https://www.spotrac.com/redirect/player/2269/" xr:uid="{F3AAF381-2781-3847-A7B6-1DB89AF46B2F}"/>
-    <hyperlink ref="D356" r:id="rId233" display="https://www.spotrac.com/redirect/player/2228/" xr:uid="{B6366BC1-47F6-134A-B418-79FE24C0A1C7}"/>
-    <hyperlink ref="D357" r:id="rId234" display="https://www.spotrac.com/redirect/player/6272/" xr:uid="{0196F0AC-4C8D-A345-84B1-97DB379F59D1}"/>
-    <hyperlink ref="D358" r:id="rId235" display="https://www.spotrac.com/redirect/player/2549/" xr:uid="{F90DF3AF-63CF-FC44-B02E-2173791EDBBB}"/>
-    <hyperlink ref="D359" r:id="rId236" display="https://www.spotrac.com/redirect/player/2720/" xr:uid="{62DE8FE7-D87A-6145-852A-EB28BDAAB3B9}"/>
-    <hyperlink ref="D360" r:id="rId237" display="https://www.spotrac.com/redirect/player/2640/" xr:uid="{C12D71FD-39A9-9A41-94C2-9AB45454BF03}"/>
-    <hyperlink ref="D361" r:id="rId238" display="https://www.spotrac.com/redirect/player/2283/" xr:uid="{CE982210-DDEF-A440-B236-A0328B849111}"/>
-    <hyperlink ref="D362" r:id="rId239" display="https://www.spotrac.com/redirect/player/8075/" xr:uid="{9483D30C-1238-BA4E-B236-9D974BBC0214}"/>
-    <hyperlink ref="D363" r:id="rId240" display="https://www.spotrac.com/redirect/player/8064/" xr:uid="{89FA3FD5-D0C3-F04B-A279-3832F67B6160}"/>
-    <hyperlink ref="D364" r:id="rId241" display="https://www.spotrac.com/redirect/player/6915/" xr:uid="{78137F9A-C434-CA47-B9FF-3D625A13D363}"/>
-    <hyperlink ref="D365" r:id="rId242" display="https://www.spotrac.com/redirect/player/11079/" xr:uid="{F9F18F43-5335-AD45-A42B-0304B749C493}"/>
-    <hyperlink ref="D366" r:id="rId243" display="https://www.spotrac.com/redirect/player/13318/" xr:uid="{3BA0F38D-A1C2-414F-B9A3-887A0D0C97FE}"/>
-    <hyperlink ref="D367" r:id="rId244" display="https://www.spotrac.com/redirect/player/13336/" xr:uid="{F89F02AF-BAB8-BA4F-84E6-DCF1DA4932D3}"/>
-    <hyperlink ref="D368" r:id="rId245" display="https://www.spotrac.com/redirect/player/13478/" xr:uid="{72FC4B9F-9FF3-DD4E-893A-FBA10B492E12}"/>
-    <hyperlink ref="D369" r:id="rId246" display="https://www.spotrac.com/redirect/player/15392/" xr:uid="{D90B0532-9D6A-994C-A796-22890DD79DBA}"/>
-    <hyperlink ref="D370" r:id="rId247" display="https://www.spotrac.com/redirect/player/15824/" xr:uid="{9E7E0805-5E34-2545-87AB-784CEAE7A592}"/>
-    <hyperlink ref="D371" r:id="rId248" display="https://www.spotrac.com/redirect/player/15361/" xr:uid="{A68E240D-1D25-CB4B-854B-32C0E2236197}"/>
-    <hyperlink ref="D372" r:id="rId249" display="https://www.spotrac.com/redirect/player/15645/" xr:uid="{369B1142-12A8-C64B-8F6B-E54F403DAD86}"/>
-    <hyperlink ref="D373" r:id="rId250" display="https://www.spotrac.com/redirect/player/17837/" xr:uid="{0AEE576F-6905-5742-BDC8-96E21840A73A}"/>
-    <hyperlink ref="D374" r:id="rId251" display="https://www.spotrac.com/redirect/player/15838/" xr:uid="{843A5B4E-92C3-774B-9CFC-54C002FD8908}"/>
-    <hyperlink ref="D375" r:id="rId252" display="https://www.spotrac.com/redirect/player/13360/" xr:uid="{26581050-D4A0-FA42-B72B-4D5BD8A9B66E}"/>
-    <hyperlink ref="D376" r:id="rId253" display="https://www.spotrac.com/redirect/player/20215/" xr:uid="{D0F32E17-10E9-574C-A327-3729C5AB08F2}"/>
-    <hyperlink ref="D377" r:id="rId254" display="https://www.spotrac.com/redirect/player/17863/" xr:uid="{679035C1-B02E-064E-834C-BD73DF794ACF}"/>
-    <hyperlink ref="D378" r:id="rId255" display="https://www.spotrac.com/redirect/player/23649/" xr:uid="{82948BD0-C3D4-5944-8AAE-1B74F7BE1169}"/>
-    <hyperlink ref="D379" r:id="rId256" display="https://www.spotrac.com/redirect/player/23615/" xr:uid="{92A2F209-B288-474F-B217-BA987C69E5B6}"/>
-    <hyperlink ref="D380" r:id="rId257" display="https://www.spotrac.com/redirect/player/24230/" xr:uid="{337F3B49-D6F0-FF45-A888-4679E3E37F92}"/>
-    <hyperlink ref="D381" r:id="rId258" display="https://www.spotrac.com/redirect/player/24263/" xr:uid="{BA4EB0F3-739F-5F42-A4E6-0DB7F5C5BA2F}"/>
-    <hyperlink ref="D382" r:id="rId259" display="https://www.spotrac.com/redirect/player/32680/" xr:uid="{345587C0-A349-5A4A-8388-787A14A58688}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>